--- a/compliance_marketing_master.xlsx
+++ b/compliance_marketing_master.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamza/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamza/Desktop/Compliance Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE451741-5893-6D49-BDDB-4531F879122B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2965C82E-2E90-0E41-9F4D-32FAD7D524F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1660" yWindow="1080" windowWidth="27640" windowHeight="16840" xr2:uid="{E350BAA7-180B-454A-8219-FBA5C6910CE9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="712">
   <si>
     <t>Project Name</t>
   </si>
@@ -2161,6 +2161,18 @@
   </si>
   <si>
     <t>Schwab Core Bond Deck Q2 2024</t>
+  </si>
+  <si>
+    <t>20250711004_FLEX_BRCH_Beneco Brochure</t>
+  </si>
+  <si>
+    <t>20250714001_TRAN_CITD_Slide Deck of Advisor Strategy with mention of CIT</t>
+  </si>
+  <si>
+    <t>20250714002_FED_BRCH_TRBCIF Brochure</t>
+  </si>
+  <si>
+    <t>Slide Deck</t>
   </si>
 </sst>
 </file>
@@ -2169,9 +2181,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2253,8 +2265,15 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2291,6 +2310,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2305,7 +2336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2344,18 +2375,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2365,42 +2390,76 @@
     <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
+      <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
+      <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2447,26 +2506,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4D62CF5-6D32-F743-9CC6-176CEA646CCC}" name="Table4" displayName="Table4" ref="A1:D538" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:D538" xr:uid="{F4D62CF5-6D32-F743-9CC6-176CEA646CCC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4D62CF5-6D32-F743-9CC6-176CEA646CCC}" name="Table4" displayName="Table4" ref="A1:D541" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:D541" xr:uid="{F4D62CF5-6D32-F743-9CC6-176CEA646CCC}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0E7F9EEB-3CC2-C547-AEEF-120828C1EC36}" name="Project Name"/>
-    <tableColumn id="16" xr3:uid="{4E382932-B81A-1B4E-AE92-46A6F8120422}" name="Document Type"/>
-    <tableColumn id="3" xr3:uid="{489BB67F-F07C-6141-909C-CE0DD6B77343}" name="Date Received" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{94C95A83-0029-3648-B01B-3F61A466D38E}" name="# of pages / # of minutes for videos" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{4E382932-B81A-1B4E-AE92-46A6F8120422}" name="Document Type" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{489BB67F-F07C-6141-909C-CE0DD6B77343}" name="Date Received" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{94C95A83-0029-3648-B01B-3F61A466D38E}" name="# of pages / # of minutes for videos" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{36A41306-3362-1B4A-89C6-A05BB3CFE290}" name="Table2" displayName="Table2" ref="A1:E129" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{36A41306-3362-1B4A-89C6-A05BB3CFE290}" name="Table2" displayName="Table2" ref="A1:E129" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:E129" xr:uid="{36A41306-3362-1B4A-89C6-A05BB3CFE290}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D00653AA-25BC-9943-8B7B-349D9FF97F02}" name="Project Name"/>
     <tableColumn id="4" xr3:uid="{2BAB1645-2FA3-314C-B53B-4D92B4BD4ADA}" name="Document Type"/>
     <tableColumn id="13" xr3:uid="{5EB4A172-E94D-0E49-890C-0B170864A3B7}" name="# of Pages"/>
-    <tableColumn id="11" xr3:uid="{A545ACA1-F64C-CC47-A2AA-E717CB435185}" name="Date Received" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{A545ACA1-F64C-CC47-A2AA-E717CB435185}" name="Date Received" dataDxfId="4"/>
     <tableColumn id="8" xr3:uid="{CED172C5-6296-7A44-85E8-929B331DC9C8}" name="Date Sent To Compliance" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2790,18 +2849,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABCC7FD-F432-2449-9558-FEC0E4D984BB}">
-  <dimension ref="A1:D538"/>
+  <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
-      <selection activeCell="C282" sqref="C282"/>
+    <sheetView tabSelected="1" topLeftCell="A459" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="1" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -2811,7 +2870,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2822,10 +2881,10 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="30">
         <v>45288</v>
       </c>
       <c r="D2" s="5">
@@ -2836,10 +2895,10 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="31">
         <v>45289</v>
       </c>
       <c r="D3" s="5"/>
@@ -2848,10 +2907,10 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="30">
         <v>45293</v>
       </c>
       <c r="D4" s="5"/>
@@ -2860,10 +2919,10 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="31">
         <v>45295</v>
       </c>
       <c r="D5" s="5">
@@ -2874,10 +2933,10 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="30">
         <v>45295</v>
       </c>
       <c r="D6" s="5">
@@ -2888,10 +2947,10 @@
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="32">
         <v>45295</v>
       </c>
       <c r="D7" s="5">
@@ -2902,10 +2961,10 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="30">
         <v>45295</v>
       </c>
       <c r="D8" s="5"/>
@@ -2914,10 +2973,10 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C9" s="24">
+      <c r="B9" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C9" s="31">
         <v>45300</v>
       </c>
       <c r="D9" s="5">
@@ -2928,10 +2987,10 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="39" t="s">
         <v>658</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="30">
         <v>45301</v>
       </c>
       <c r="D10" s="5"/>
@@ -2940,10 +2999,10 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="31">
         <v>45302</v>
       </c>
       <c r="D11" s="5"/>
@@ -2952,11 +3011,11 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="39" t="s">
         <v>663</v>
       </c>
-      <c r="C12" s="24">
-        <v>45302</v>
+      <c r="C12" s="30">
+        <v>45303</v>
       </c>
       <c r="D12" s="5">
         <v>2</v>
@@ -2966,11 +3025,11 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C13" s="24">
-        <v>45302</v>
+      <c r="C13" s="31">
+        <v>45303</v>
       </c>
       <c r="D13" s="5"/>
     </row>
@@ -2978,11 +3037,11 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="40" t="s">
         <v>658</v>
       </c>
-      <c r="C14" s="25">
-        <v>45302</v>
+      <c r="C14" s="30">
+        <v>45307</v>
       </c>
       <c r="D14" s="5"/>
     </row>
@@ -2990,11 +3049,11 @@
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C15" s="24">
-        <v>45302</v>
+      <c r="B15" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C15" s="32">
+        <v>45307</v>
       </c>
       <c r="D15" s="5">
         <v>2</v>
@@ -3004,11 +3063,11 @@
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="39" t="s">
         <v>663</v>
       </c>
-      <c r="C16" s="24">
-        <v>45302</v>
+      <c r="C16" s="30">
+        <v>45309</v>
       </c>
       <c r="D16" s="5"/>
     </row>
@@ -3016,11 +3075,11 @@
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C17" s="24">
-        <v>45303</v>
+      <c r="C17" s="31">
+        <v>45309</v>
       </c>
       <c r="D17" s="5"/>
     </row>
@@ -3028,11 +3087,11 @@
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="39" t="s">
         <v>663</v>
       </c>
-      <c r="C18" s="24">
-        <v>45303</v>
+      <c r="C18" s="30">
+        <v>45309</v>
       </c>
       <c r="D18" s="5"/>
     </row>
@@ -3040,11 +3099,11 @@
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C19" s="24">
-        <v>45303</v>
+      <c r="B19" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C19" s="31">
+        <v>45313</v>
       </c>
       <c r="D19" s="5"/>
     </row>
@@ -3052,11 +3111,11 @@
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C20" s="24">
-        <v>45303</v>
+      <c r="B20" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C20" s="30">
+        <v>45313</v>
       </c>
       <c r="D20" s="5"/>
     </row>
@@ -3064,11 +3123,11 @@
       <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C21" s="24">
-        <v>45303</v>
+      <c r="C21" s="31">
+        <v>45313</v>
       </c>
       <c r="D21" s="5"/>
     </row>
@@ -3076,11 +3135,11 @@
       <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="40" t="s">
         <v>673</v>
       </c>
-      <c r="C22" s="25">
-        <v>45307</v>
+      <c r="C22" s="30">
+        <v>45317</v>
       </c>
       <c r="D22" s="5"/>
     </row>
@@ -3088,11 +3147,11 @@
       <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="39" t="s">
         <v>540</v>
       </c>
-      <c r="C23" s="24">
-        <v>45307</v>
+      <c r="C23" s="32">
+        <v>45317</v>
       </c>
       <c r="D23" s="5"/>
     </row>
@@ -3100,11 +3159,11 @@
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="40" t="s">
         <v>663</v>
       </c>
-      <c r="C24" s="25">
-        <v>45307</v>
+      <c r="C24" s="30">
+        <v>45323</v>
       </c>
       <c r="D24" s="5"/>
     </row>
@@ -3112,11 +3171,11 @@
       <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C25" s="24">
-        <v>45307</v>
+      <c r="C25" s="32">
+        <v>45323</v>
       </c>
       <c r="D25" s="5"/>
     </row>
@@ -3124,11 +3183,11 @@
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="39" t="s">
         <v>663</v>
       </c>
-      <c r="C26" s="24">
-        <v>45307</v>
+      <c r="C26" s="30">
+        <v>45324</v>
       </c>
       <c r="D26" s="5"/>
     </row>
@@ -3136,11 +3195,11 @@
       <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="40" t="s">
         <v>663</v>
       </c>
-      <c r="C27" s="25">
-        <v>45307</v>
+      <c r="C27" s="31">
+        <v>45324</v>
       </c>
       <c r="D27" s="5"/>
     </row>
@@ -3148,11 +3207,11 @@
       <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C28" s="24">
-        <v>45307</v>
+      <c r="B28" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C28" s="33">
+        <v>45324</v>
       </c>
       <c r="D28" s="5"/>
     </row>
@@ -3160,11 +3219,11 @@
       <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="C29" s="25">
-        <v>45307</v>
+      <c r="C29" s="31">
+        <v>45327</v>
       </c>
       <c r="D29" s="5"/>
     </row>
@@ -3172,11 +3231,11 @@
       <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C30" s="24">
-        <v>45307</v>
+      <c r="C30" s="33">
+        <v>45327</v>
       </c>
       <c r="D30" s="5"/>
     </row>
@@ -3184,11 +3243,11 @@
       <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C31" s="24">
-        <v>45308</v>
+      <c r="C31" s="31">
+        <v>45328</v>
       </c>
       <c r="D31" s="5"/>
     </row>
@@ -3196,11 +3255,11 @@
       <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C32" s="24">
-        <v>45308</v>
+      <c r="B32" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C32" s="30">
+        <v>45328</v>
       </c>
       <c r="D32" s="5">
         <v>2</v>
@@ -3210,11 +3269,11 @@
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C33" s="24">
-        <v>45308</v>
+      <c r="B33" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C33" s="31">
+        <v>45329</v>
       </c>
       <c r="D33" s="5">
         <v>2</v>
@@ -3224,11 +3283,11 @@
       <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C34" s="24">
-        <v>45308</v>
+      <c r="B34" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C34" s="30">
+        <v>45330</v>
       </c>
       <c r="D34" s="5">
         <v>2</v>
@@ -3238,11 +3297,11 @@
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C35" s="24">
-        <v>45308</v>
+      <c r="B35" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C35" s="31">
+        <v>45330</v>
       </c>
       <c r="D35" s="5">
         <v>8</v>
@@ -3252,11 +3311,11 @@
       <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C36" s="31">
-        <v>45308</v>
+      <c r="B36" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C36" s="30">
+        <v>45331</v>
       </c>
       <c r="D36" s="5"/>
     </row>
@@ -3264,11 +3323,11 @@
       <c r="A37" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C37" s="24">
-        <v>45308</v>
+      <c r="B37" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C37" s="31">
+        <v>45331</v>
       </c>
       <c r="D37" s="5">
         <v>2</v>
@@ -3278,11 +3337,11 @@
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C38" s="24">
-        <v>45308</v>
+      <c r="C38" s="30">
+        <v>45334</v>
       </c>
       <c r="D38" s="5"/>
     </row>
@@ -3290,11 +3349,11 @@
       <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C39" s="24">
-        <v>45308</v>
+      <c r="C39" s="31">
+        <v>45336</v>
       </c>
       <c r="D39" s="5"/>
     </row>
@@ -3302,11 +3361,11 @@
       <c r="A40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C40" s="24">
-        <v>45308</v>
+      <c r="C40" s="30">
+        <v>45337</v>
       </c>
       <c r="D40" s="5"/>
     </row>
@@ -3314,11 +3373,11 @@
       <c r="A41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C41" s="24">
-        <v>45308</v>
+      <c r="C41" s="31">
+        <v>45342</v>
       </c>
       <c r="D41" s="5"/>
     </row>
@@ -3326,11 +3385,11 @@
       <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="C42" s="25">
-        <v>45308</v>
+      <c r="C42" s="30">
+        <v>45345</v>
       </c>
       <c r="D42" s="5"/>
     </row>
@@ -3338,11 +3397,11 @@
       <c r="A43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="C43" s="25">
-        <v>45308</v>
+      <c r="C43" s="32">
+        <v>45345</v>
       </c>
       <c r="D43" s="5">
         <v>2</v>
@@ -3352,11 +3411,11 @@
       <c r="A44" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C44" s="24">
-        <v>45308</v>
+      <c r="C44" s="33">
+        <v>45350</v>
       </c>
       <c r="D44" s="5"/>
     </row>
@@ -3364,11 +3423,11 @@
       <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C45" s="24">
-        <v>45308</v>
+      <c r="B45" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C45" s="31">
+        <v>45351</v>
       </c>
       <c r="D45" s="5"/>
     </row>
@@ -3376,11 +3435,11 @@
       <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C46" s="24">
-        <v>45308</v>
+      <c r="B46" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C46" s="30">
+        <v>45351</v>
       </c>
       <c r="D46" s="5"/>
     </row>
@@ -3388,11 +3447,11 @@
       <c r="A47" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="39" t="s">
         <v>658</v>
       </c>
-      <c r="C47" s="24">
-        <v>45308</v>
+      <c r="C47" s="31">
+        <v>45351</v>
       </c>
       <c r="D47" s="5"/>
     </row>
@@ -3400,11 +3459,11 @@
       <c r="A48" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="C48" s="24">
-        <v>45308</v>
+      <c r="C48" s="30">
+        <v>45362</v>
       </c>
       <c r="D48" s="5"/>
     </row>
@@ -3412,11 +3471,11 @@
       <c r="A49" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C49" s="24">
-        <v>45309</v>
+      <c r="C49" s="31">
+        <v>45362</v>
       </c>
       <c r="D49" s="5"/>
     </row>
@@ -3424,11 +3483,11 @@
       <c r="A50" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C50" s="24">
-        <v>45309</v>
+      <c r="B50" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C50" s="30">
+        <v>45363</v>
       </c>
       <c r="D50" s="5"/>
     </row>
@@ -3436,11 +3495,11 @@
       <c r="A51" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C51" s="24">
-        <v>45309</v>
+      <c r="B51" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C51" s="31">
+        <v>45364</v>
       </c>
       <c r="D51" s="5"/>
     </row>
@@ -3448,11 +3507,11 @@
       <c r="A52" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C52" s="24">
-        <v>45407</v>
+      <c r="B52" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C52" s="30">
+        <v>45365</v>
       </c>
       <c r="D52" s="5">
         <v>4</v>
@@ -3462,11 +3521,11 @@
       <c r="A53" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C53" s="24">
-        <v>45564</v>
+      <c r="B53" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C53" s="31">
+        <v>45366</v>
       </c>
       <c r="D53" s="5"/>
     </row>
@@ -3474,11 +3533,11 @@
       <c r="A54" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C54" s="24">
-        <v>45419</v>
+      <c r="C54" s="30">
+        <v>45370</v>
       </c>
       <c r="D54" s="5"/>
     </row>
@@ -3486,11 +3545,11 @@
       <c r="A55" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C55" s="24">
-        <v>45558</v>
+      <c r="B55" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C55" s="31">
+        <v>45370</v>
       </c>
       <c r="D55" s="5">
         <v>10</v>
@@ -3500,11 +3559,11 @@
       <c r="A56" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C56" s="24">
-        <v>45558</v>
+      <c r="C56" s="30">
+        <v>45372</v>
       </c>
       <c r="D56" s="5"/>
     </row>
@@ -3512,11 +3571,11 @@
       <c r="A57" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C57" s="24">
-        <v>45620</v>
+      <c r="C57" s="31">
+        <v>45372</v>
       </c>
       <c r="D57" s="5"/>
     </row>
@@ -3524,11 +3583,11 @@
       <c r="A58" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C58" s="24">
-        <v>45633</v>
+      <c r="B58" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C58" s="30">
+        <v>45373</v>
       </c>
       <c r="D58" s="5">
         <v>10</v>
@@ -3538,11 +3597,11 @@
       <c r="A59" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C59" s="24">
-        <v>45427</v>
+      <c r="B59" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C59" s="31">
+        <v>45373</v>
       </c>
       <c r="D59" s="5">
         <v>28</v>
@@ -3552,11 +3611,11 @@
       <c r="A60" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C60" s="24">
-        <v>45588</v>
+      <c r="B60" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C60" s="30">
+        <v>45373</v>
       </c>
       <c r="D60" s="5">
         <v>29</v>
@@ -3566,11 +3625,11 @@
       <c r="A61" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="25" t="s">
-        <v>646</v>
-      </c>
-      <c r="C61" s="25">
-        <v>45504</v>
+      <c r="B61" s="40" t="s">
+        <v>646</v>
+      </c>
+      <c r="C61" s="31">
+        <v>45376</v>
       </c>
       <c r="D61" s="5">
         <v>8</v>
@@ -3580,11 +3639,11 @@
       <c r="A62" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="C62" s="25">
-        <v>45330</v>
+      <c r="C62" s="33">
+        <v>45378</v>
       </c>
       <c r="D62" s="5">
         <v>11</v>
@@ -3594,11 +3653,11 @@
       <c r="A63" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C63" s="24">
-        <v>45359</v>
+      <c r="C63" s="32">
+        <v>45378</v>
       </c>
       <c r="D63" s="5"/>
     </row>
@@ -3606,11 +3665,11 @@
       <c r="A64" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C64" s="24">
-        <v>45326</v>
+      <c r="B64" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C64" s="30">
+        <v>45378</v>
       </c>
       <c r="D64" s="5"/>
     </row>
@@ -3618,11 +3677,11 @@
       <c r="A65" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="39" t="s">
         <v>582</v>
       </c>
       <c r="C65" s="31">
-        <v>45300</v>
+        <v>45379</v>
       </c>
       <c r="D65" s="5"/>
     </row>
@@ -3630,11 +3689,11 @@
       <c r="A66" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C66" s="31">
-        <v>45649</v>
+      <c r="B66" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C66" s="30">
+        <v>45380</v>
       </c>
       <c r="D66" s="5"/>
     </row>
@@ -3642,11 +3701,11 @@
       <c r="A67" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C67" s="24">
-        <v>45310</v>
+      <c r="B67" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C67" s="31">
+        <v>45380</v>
       </c>
       <c r="D67" s="5">
         <v>3</v>
@@ -3656,11 +3715,11 @@
       <c r="A68" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C68" s="24">
-        <v>45414</v>
+      <c r="B68" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C68" s="30">
+        <v>45384</v>
       </c>
       <c r="D68" s="5">
         <v>2</v>
@@ -3670,11 +3729,11 @@
       <c r="A69" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C69" s="24">
-        <v>45408</v>
+      <c r="B69" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C69" s="31">
+        <v>45385</v>
       </c>
       <c r="D69" s="5"/>
     </row>
@@ -3682,11 +3741,11 @@
       <c r="A70" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C70" s="24">
-        <v>45464</v>
+      <c r="B70" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C70" s="30">
+        <v>45386</v>
       </c>
       <c r="D70" s="5">
         <v>6</v>
@@ -3696,11 +3755,11 @@
       <c r="A71" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B71" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C71" s="24">
-        <v>45367</v>
+      <c r="B71" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C71" s="31">
+        <v>45387</v>
       </c>
       <c r="D71" s="5">
         <v>16</v>
@@ -3710,11 +3769,11 @@
       <c r="A72" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="24" t="s">
+      <c r="B72" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C72" s="24">
-        <v>45460</v>
+      <c r="C72" s="30">
+        <v>45383</v>
       </c>
       <c r="D72" s="5"/>
     </row>
@@ -3722,11 +3781,11 @@
       <c r="A73" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="24" t="s">
+      <c r="B73" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C73" s="24">
-        <v>45505</v>
+      <c r="C73" s="31">
+        <v>45391</v>
       </c>
       <c r="D73" s="5">
         <v>11</v>
@@ -3736,11 +3795,11 @@
       <c r="A74" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="24" t="s">
+      <c r="B74" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C74" s="24">
-        <v>45425</v>
+      <c r="C74" s="30">
+        <v>45392</v>
       </c>
       <c r="D74" s="5">
         <v>14</v>
@@ -3750,11 +3809,11 @@
       <c r="A75" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B75" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C75" s="24">
-        <v>45395</v>
+      <c r="B75" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C75" s="31">
+        <v>45393</v>
       </c>
       <c r="D75" s="5"/>
     </row>
@@ -3762,11 +3821,11 @@
       <c r="A76" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C76" s="24">
-        <v>45637</v>
+      <c r="B76" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C76" s="30">
+        <v>45397</v>
       </c>
       <c r="D76" s="5"/>
     </row>
@@ -3774,11 +3833,11 @@
       <c r="A77" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C77" s="24">
-        <v>45526</v>
+      <c r="C77" s="31">
+        <v>45397</v>
       </c>
       <c r="D77" s="5">
         <v>14</v>
@@ -3788,11 +3847,11 @@
       <c r="A78" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C78" s="24">
-        <v>45353</v>
+      <c r="B78" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C78" s="30">
+        <v>45398</v>
       </c>
       <c r="D78" s="5">
         <v>13</v>
@@ -3802,11 +3861,11 @@
       <c r="A79" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C79" s="24">
-        <v>45292</v>
+      <c r="C79" s="31">
+        <v>45398</v>
       </c>
       <c r="D79" s="5"/>
     </row>
@@ -3814,11 +3873,11 @@
       <c r="A80" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C80" s="24">
-        <v>45577</v>
+      <c r="B80" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C80" s="30">
+        <v>45401</v>
       </c>
       <c r="D80" s="5">
         <v>25</v>
@@ -3828,11 +3887,11 @@
       <c r="A81" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C81" s="24">
-        <v>45514</v>
+      <c r="B81" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C81" s="31">
+        <v>45401</v>
       </c>
       <c r="D81" s="5">
         <v>10</v>
@@ -3842,11 +3901,11 @@
       <c r="A82" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C82" s="24">
-        <v>45439</v>
+      <c r="B82" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C82" s="30">
+        <v>45404</v>
       </c>
       <c r="D82" s="5">
         <v>30</v>
@@ -3856,11 +3915,11 @@
       <c r="A83" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B83" s="24" t="s">
+      <c r="B83" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C83" s="24">
-        <v>45516</v>
+      <c r="C83" s="31">
+        <v>45405</v>
       </c>
       <c r="D83" s="5">
         <v>23</v>
@@ -3870,11 +3929,11 @@
       <c r="A84" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C84" s="24">
-        <v>45635</v>
+      <c r="C84" s="30">
+        <v>45405</v>
       </c>
       <c r="D84" s="5"/>
     </row>
@@ -3882,11 +3941,11 @@
       <c r="A85" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="24" t="s">
+      <c r="B85" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C85" s="24">
-        <v>45548</v>
+      <c r="C85" s="31">
+        <v>45405</v>
       </c>
       <c r="D85" s="5">
         <v>19</v>
@@ -3896,11 +3955,11 @@
       <c r="A86" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C86" s="24">
-        <v>45613</v>
+      <c r="B86" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C86" s="30">
+        <v>45405</v>
       </c>
       <c r="D86" s="5">
         <v>30</v>
@@ -3910,11 +3969,11 @@
       <c r="A87" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C87" s="24">
-        <v>45648</v>
+      <c r="B87" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C87" s="31">
+        <v>45407</v>
       </c>
       <c r="D87" s="5"/>
     </row>
@@ -3922,11 +3981,11 @@
       <c r="A88" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B88" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C88" s="24">
-        <v>45481</v>
+      <c r="B88" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C88" s="30">
+        <v>45407</v>
       </c>
       <c r="D88" s="5">
         <v>25</v>
@@ -3936,11 +3995,11 @@
       <c r="A89" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B89" s="25" t="s">
-        <v>582</v>
-      </c>
-      <c r="C89" s="25">
-        <v>45427</v>
+      <c r="B89" s="40" t="s">
+        <v>582</v>
+      </c>
+      <c r="C89" s="31">
+        <v>45408</v>
       </c>
       <c r="D89" s="5">
         <v>17</v>
@@ -3950,11 +4009,11 @@
       <c r="A90" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B90" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C90" s="24">
-        <v>45314</v>
+      <c r="B90" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C90" s="33">
+        <v>45412</v>
       </c>
       <c r="D90" s="5">
         <v>17</v>
@@ -3964,11 +4023,11 @@
       <c r="A91" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B91" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C91" s="24">
-        <v>45653</v>
+      <c r="B91" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C91" s="31">
+        <v>45413</v>
       </c>
       <c r="D91" s="5">
         <v>29</v>
@@ -3978,11 +4037,11 @@
       <c r="A92" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="24" t="s">
+      <c r="B92" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C92" s="24">
-        <v>45331</v>
+      <c r="C92" s="30">
+        <v>45413</v>
       </c>
       <c r="D92" s="5">
         <v>9</v>
@@ -3992,11 +4051,11 @@
       <c r="A93" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="24" t="s">
+      <c r="B93" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C93" s="24">
-        <v>45498</v>
+      <c r="C93" s="31">
+        <v>45413</v>
       </c>
       <c r="D93" s="5"/>
     </row>
@@ -4004,11 +4063,11 @@
       <c r="A94" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C94" s="24">
-        <v>45571</v>
+      <c r="B94" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C94" s="30">
+        <v>45413</v>
       </c>
       <c r="D94" s="5">
         <v>13</v>
@@ -4018,11 +4077,11 @@
       <c r="A95" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="24" t="s">
+      <c r="B95" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C95" s="24">
-        <v>45496</v>
+      <c r="C95" s="31">
+        <v>45419</v>
       </c>
       <c r="D95" s="5"/>
     </row>
@@ -4030,11 +4089,11 @@
       <c r="A96" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C96" s="24">
-        <v>45311</v>
+      <c r="B96" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C96" s="30">
+        <v>45420</v>
       </c>
       <c r="D96" s="5">
         <v>15</v>
@@ -4044,11 +4103,11 @@
       <c r="A97" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C97" s="24">
-        <v>45412</v>
+      <c r="B97" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C97" s="31">
+        <v>45422</v>
       </c>
       <c r="D97" s="5"/>
     </row>
@@ -4056,11 +4115,11 @@
       <c r="A98" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C98" s="24">
-        <v>45529</v>
+      <c r="B98" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C98" s="30">
+        <v>45425</v>
       </c>
       <c r="D98" s="5"/>
     </row>
@@ -4068,11 +4127,11 @@
       <c r="A99" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="25" t="s">
+      <c r="B99" s="40" t="s">
         <v>673</v>
       </c>
-      <c r="C99" s="25">
-        <v>45480</v>
+      <c r="C99" s="31">
+        <v>45425</v>
       </c>
       <c r="D99" s="5"/>
     </row>
@@ -4080,11 +4139,11 @@
       <c r="A100" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B100" s="24" t="s">
+      <c r="B100" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C100" s="24">
-        <v>45322</v>
+      <c r="C100" s="33">
+        <v>45426</v>
       </c>
       <c r="D100" s="5">
         <v>3</v>
@@ -4094,11 +4153,11 @@
       <c r="A101" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C101" s="24">
-        <v>45515</v>
+      <c r="B101" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C101" s="31">
+        <v>45426</v>
       </c>
       <c r="D101" s="5">
         <v>10</v>
@@ -4108,11 +4167,11 @@
       <c r="A102" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="24" t="s">
+      <c r="B102" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C102" s="24">
-        <v>45325</v>
+      <c r="C102" s="30">
+        <v>45426</v>
       </c>
       <c r="D102" s="5">
         <v>18</v>
@@ -4122,11 +4181,11 @@
       <c r="A103" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C103" s="24">
-        <v>45415</v>
+      <c r="B103" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C103" s="31">
+        <v>45427</v>
       </c>
       <c r="D103" s="5">
         <v>3</v>
@@ -4136,11 +4195,11 @@
       <c r="A104" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B104" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C104" s="24">
-        <v>45370</v>
+      <c r="B104" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C104" s="30">
+        <v>45428</v>
       </c>
       <c r="D104" s="5">
         <v>8</v>
@@ -4150,11 +4209,11 @@
       <c r="A105" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B105" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C105" s="24">
-        <v>45640</v>
+      <c r="B105" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C105" s="31">
+        <v>45429</v>
       </c>
       <c r="D105" s="5">
         <v>12</v>
@@ -4164,11 +4223,11 @@
       <c r="A106" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B106" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C106" s="24">
-        <v>45496</v>
+      <c r="B106" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C106" s="30">
+        <v>45429</v>
       </c>
       <c r="D106" s="5">
         <v>9</v>
@@ -4178,11 +4237,11 @@
       <c r="A107" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B107" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C107" s="24">
-        <v>45419</v>
+      <c r="B107" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C107" s="31">
+        <v>45433</v>
       </c>
       <c r="D107" s="5">
         <v>27</v>
@@ -4192,11 +4251,11 @@
       <c r="A108" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B108" s="24" t="s">
+      <c r="B108" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C108" s="24">
-        <v>45365</v>
+      <c r="C108" s="30">
+        <v>45435</v>
       </c>
       <c r="D108" s="5"/>
     </row>
@@ -4204,11 +4263,11 @@
       <c r="A109" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B109" s="24" t="s">
+      <c r="B109" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C109" s="24">
-        <v>45292</v>
+      <c r="C109" s="31">
+        <v>45442</v>
       </c>
       <c r="D109" s="5">
         <v>22</v>
@@ -4218,11 +4277,11 @@
       <c r="A110" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B110" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C110" s="24">
-        <v>45450</v>
+      <c r="B110" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C110" s="30">
+        <v>45443</v>
       </c>
       <c r="D110" s="5">
         <v>13</v>
@@ -4232,11 +4291,11 @@
       <c r="A111" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B111" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C111" s="24">
-        <v>45374</v>
+      <c r="B111" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C111" s="31">
+        <v>45446</v>
       </c>
       <c r="D111" s="5">
         <v>2</v>
@@ -4246,11 +4305,11 @@
       <c r="A112" t="s">
         <v>110</v>
       </c>
-      <c r="B112" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C112" s="24">
-        <v>45551</v>
+      <c r="B112" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C112" s="30">
+        <v>45446</v>
       </c>
       <c r="D112" s="5">
         <v>28</v>
@@ -4260,11 +4319,11 @@
       <c r="A113" t="s">
         <v>111</v>
       </c>
-      <c r="B113" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C113" s="24">
-        <v>45509</v>
+      <c r="B113" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C113" s="31">
+        <v>45446</v>
       </c>
       <c r="D113" s="5">
         <v>25</v>
@@ -4274,10 +4333,10 @@
       <c r="A114" t="s">
         <v>112</v>
       </c>
-      <c r="B114" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C114" s="24">
+      <c r="B114" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C114" s="30">
         <v>45446</v>
       </c>
       <c r="D114" s="5">
@@ -4288,11 +4347,11 @@
       <c r="A115" t="s">
         <v>94</v>
       </c>
-      <c r="B115" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C115" s="24">
-        <v>45467</v>
+      <c r="B115" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C115" s="31">
+        <v>45448</v>
       </c>
       <c r="D115" s="5">
         <v>12</v>
@@ -4302,11 +4361,11 @@
       <c r="A116" t="s">
         <v>113</v>
       </c>
-      <c r="B116" s="24" t="s">
+      <c r="B116" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C116" s="24">
-        <v>45521</v>
+      <c r="C116" s="30">
+        <v>45449</v>
       </c>
       <c r="D116" s="5">
         <v>4</v>
@@ -4316,11 +4375,11 @@
       <c r="A117" t="s">
         <v>114</v>
       </c>
-      <c r="B117" s="24" t="s">
+      <c r="B117" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C117" s="24">
-        <v>45369</v>
+      <c r="C117" s="31">
+        <v>45449</v>
       </c>
       <c r="D117" s="5"/>
     </row>
@@ -4328,11 +4387,11 @@
       <c r="A118" t="s">
         <v>115</v>
       </c>
-      <c r="B118" s="24" t="s">
+      <c r="B118" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C118" s="24">
-        <v>45541</v>
+      <c r="C118" s="30">
+        <v>45450</v>
       </c>
       <c r="D118" s="5"/>
     </row>
@@ -4340,11 +4399,11 @@
       <c r="A119" t="s">
         <v>116</v>
       </c>
-      <c r="B119" s="24" t="s">
+      <c r="B119" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C119" s="24">
-        <v>45486</v>
+      <c r="C119" s="31">
+        <v>45453</v>
       </c>
       <c r="D119" s="5"/>
     </row>
@@ -4352,11 +4411,11 @@
       <c r="A120" t="s">
         <v>117</v>
       </c>
-      <c r="B120" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C120" s="24">
-        <v>45519</v>
+      <c r="B120" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C120" s="30">
+        <v>45454</v>
       </c>
       <c r="D120" s="5"/>
     </row>
@@ -4364,11 +4423,11 @@
       <c r="A121" t="s">
         <v>118</v>
       </c>
-      <c r="B121" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C121" s="24">
-        <v>45315</v>
+      <c r="B121" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C121" s="31">
+        <v>45455</v>
       </c>
       <c r="D121" s="5">
         <v>20</v>
@@ -4378,11 +4437,11 @@
       <c r="A122" t="s">
         <v>119</v>
       </c>
-      <c r="B122" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C122" s="24">
-        <v>45635</v>
+      <c r="B122" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C122" s="30">
+        <v>45457</v>
       </c>
       <c r="D122" s="5"/>
     </row>
@@ -4390,11 +4449,11 @@
       <c r="A123" t="s">
         <v>120</v>
       </c>
-      <c r="B123" s="24" t="s">
+      <c r="B123" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C123" s="24">
-        <v>45313</v>
+      <c r="C123" s="31">
+        <v>45463</v>
       </c>
       <c r="D123" s="5">
         <v>1</v>
@@ -4404,11 +4463,11 @@
       <c r="A124" t="s">
         <v>121</v>
       </c>
-      <c r="B124" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C124" s="24">
-        <v>45512</v>
+      <c r="B124" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C124" s="30">
+        <v>45464</v>
       </c>
       <c r="D124" s="5"/>
     </row>
@@ -4416,11 +4475,11 @@
       <c r="A125" t="s">
         <v>122</v>
       </c>
-      <c r="B125" s="24" t="s">
+      <c r="B125" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C125" s="24">
-        <v>45639</v>
+      <c r="C125" s="31">
+        <v>45467</v>
       </c>
       <c r="D125" s="5"/>
     </row>
@@ -4428,11 +4487,11 @@
       <c r="A126" t="s">
         <v>123</v>
       </c>
-      <c r="B126" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C126" s="24">
-        <v>45445</v>
+      <c r="B126" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C126" s="30">
+        <v>45464</v>
       </c>
       <c r="D126" s="5">
         <v>28</v>
@@ -4442,11 +4501,11 @@
       <c r="A127" t="s">
         <v>124</v>
       </c>
-      <c r="B127" s="24" t="s">
+      <c r="B127" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C127" s="24">
-        <v>45348</v>
+      <c r="C127" s="31">
+        <v>45464</v>
       </c>
       <c r="D127" s="5">
         <v>20</v>
@@ -4456,11 +4515,11 @@
       <c r="A128" t="s">
         <v>125</v>
       </c>
-      <c r="B128" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C128" s="24">
-        <v>45313</v>
+      <c r="B128" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C128" s="30">
+        <v>45461</v>
       </c>
       <c r="D128" s="5">
         <v>28</v>
@@ -4470,11 +4529,11 @@
       <c r="A129" t="s">
         <v>126</v>
       </c>
-      <c r="B129" s="24" t="s">
+      <c r="B129" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C129" s="24">
-        <v>45373</v>
+      <c r="C129" s="31">
+        <v>45463</v>
       </c>
       <c r="D129" s="5">
         <v>15</v>
@@ -4484,11 +4543,11 @@
       <c r="A130" t="s">
         <v>127</v>
       </c>
-      <c r="B130" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C130" s="24">
-        <v>45402</v>
+      <c r="B130" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C130" s="30">
+        <v>45468</v>
       </c>
       <c r="D130" s="5">
         <v>7</v>
@@ -4498,11 +4557,11 @@
       <c r="A131" t="s">
         <v>128</v>
       </c>
-      <c r="B131" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C131" s="24">
-        <v>45642</v>
+      <c r="B131" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C131" s="31">
+        <v>45460</v>
       </c>
       <c r="D131" s="5"/>
     </row>
@@ -4510,11 +4569,11 @@
       <c r="A132" t="s">
         <v>129</v>
       </c>
-      <c r="B132" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C132" s="24">
-        <v>45430</v>
+      <c r="B132" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C132" s="30">
+        <v>45474</v>
       </c>
       <c r="D132" s="5"/>
     </row>
@@ -4522,11 +4581,11 @@
       <c r="A133" t="s">
         <v>130</v>
       </c>
-      <c r="B133" s="24" t="s">
+      <c r="B133" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C133" s="24">
-        <v>45390</v>
+      <c r="C133" s="31">
+        <v>45474</v>
       </c>
       <c r="D133" s="5">
         <v>16</v>
@@ -4536,11 +4595,11 @@
       <c r="A134" t="s">
         <v>131</v>
       </c>
-      <c r="B134" s="24" t="s">
+      <c r="B134" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C134" s="24">
-        <v>45596</v>
+      <c r="C134" s="30">
+        <v>45482</v>
       </c>
       <c r="D134" s="5"/>
     </row>
@@ -4548,11 +4607,11 @@
       <c r="A135" t="s">
         <v>132</v>
       </c>
-      <c r="B135" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C135" s="24">
-        <v>45332</v>
+      <c r="B135" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C135" s="31">
+        <v>45484</v>
       </c>
       <c r="D135" s="5">
         <v>18</v>
@@ -4562,11 +4621,11 @@
       <c r="A136" t="s">
         <v>133</v>
       </c>
-      <c r="B136" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C136" s="24">
-        <v>45427</v>
+      <c r="B136" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C136" s="30">
+        <v>45484</v>
       </c>
       <c r="D136" s="5">
         <v>26</v>
@@ -4576,11 +4635,11 @@
       <c r="A137" t="s">
         <v>134</v>
       </c>
-      <c r="B137" s="24" t="s">
+      <c r="B137" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C137" s="24">
-        <v>45357</v>
+      <c r="C137" s="31">
+        <v>45485</v>
       </c>
       <c r="D137" s="5"/>
     </row>
@@ -4588,11 +4647,11 @@
       <c r="A138" t="s">
         <v>135</v>
       </c>
-      <c r="B138" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C138" s="24">
-        <v>45610</v>
+      <c r="B138" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C138" s="30">
+        <v>45485</v>
       </c>
       <c r="D138" s="5">
         <v>11</v>
@@ -4602,11 +4661,11 @@
       <c r="A139" t="s">
         <v>136</v>
       </c>
-      <c r="B139" s="24" t="s">
+      <c r="B139" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C139" s="24">
-        <v>45393</v>
+      <c r="C139" s="31">
+        <v>45485</v>
       </c>
       <c r="D139" s="5">
         <v>17</v>
@@ -4616,11 +4675,11 @@
       <c r="A140" t="s">
         <v>137</v>
       </c>
-      <c r="B140" s="24" t="s">
+      <c r="B140" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C140" s="24">
-        <v>45508</v>
+      <c r="C140" s="30">
+        <v>45485</v>
       </c>
       <c r="D140" s="5">
         <v>26</v>
@@ -4630,11 +4689,11 @@
       <c r="A141" t="s">
         <v>138</v>
       </c>
-      <c r="B141" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C141" s="24">
-        <v>45387</v>
+      <c r="B141" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C141" s="31">
+        <v>45485</v>
       </c>
       <c r="D141" s="5">
         <v>14</v>
@@ -4644,11 +4703,11 @@
       <c r="A142" t="s">
         <v>139</v>
       </c>
-      <c r="B142" s="24" t="s">
+      <c r="B142" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C142" s="24">
-        <v>45376</v>
+      <c r="C142" s="30">
+        <v>45488</v>
       </c>
       <c r="D142" s="5">
         <v>5</v>
@@ -4658,11 +4717,11 @@
       <c r="A143" t="s">
         <v>140</v>
       </c>
-      <c r="B143" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C143" s="24">
-        <v>45569</v>
+      <c r="B143" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C143" s="31">
+        <v>45488</v>
       </c>
       <c r="D143" s="5"/>
     </row>
@@ -4670,11 +4729,11 @@
       <c r="A144" t="s">
         <v>141</v>
       </c>
-      <c r="B144" s="24" t="s">
+      <c r="B144" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C144" s="24">
-        <v>45530</v>
+      <c r="C144" s="30">
+        <v>45491</v>
       </c>
       <c r="D144" s="5">
         <v>1</v>
@@ -4684,11 +4743,11 @@
       <c r="A145" t="s">
         <v>142</v>
       </c>
-      <c r="B145" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C145" s="24">
-        <v>45328</v>
+      <c r="B145" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C145" s="31">
+        <v>45491</v>
       </c>
       <c r="D145" s="5">
         <v>16</v>
@@ -4698,11 +4757,11 @@
       <c r="A146" t="s">
         <v>143</v>
       </c>
-      <c r="B146" s="24" t="s">
+      <c r="B146" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C146" s="24">
-        <v>45493</v>
+      <c r="C146" s="30">
+        <v>45496</v>
       </c>
       <c r="D146" s="5">
         <v>21</v>
@@ -4712,11 +4771,11 @@
       <c r="A147" t="s">
         <v>144</v>
       </c>
-      <c r="B147" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C147" s="24">
-        <v>45354</v>
+      <c r="B147" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C147" s="31">
+        <v>45497</v>
       </c>
       <c r="D147" s="5">
         <v>19</v>
@@ -4726,11 +4785,11 @@
       <c r="A148" t="s">
         <v>145</v>
       </c>
-      <c r="B148" s="24" t="s">
+      <c r="B148" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C148" s="24">
-        <v>45642</v>
+      <c r="C148" s="30">
+        <v>45496</v>
       </c>
       <c r="D148" s="5"/>
     </row>
@@ -4738,11 +4797,11 @@
       <c r="A149" t="s">
         <v>146</v>
       </c>
-      <c r="B149" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C149" s="24">
-        <v>45348</v>
+      <c r="B149" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C149" s="31">
+        <v>45499</v>
       </c>
       <c r="D149" s="5">
         <v>17</v>
@@ -4752,11 +4811,11 @@
       <c r="A150" t="s">
         <v>147</v>
       </c>
-      <c r="B150" s="24" t="s">
+      <c r="B150" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C150" s="24">
-        <v>45427</v>
+      <c r="C150" s="30">
+        <v>45499</v>
       </c>
       <c r="D150" s="5"/>
     </row>
@@ -4764,11 +4823,11 @@
       <c r="A151" t="s">
         <v>148</v>
       </c>
-      <c r="B151" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C151" s="24">
-        <v>45499</v>
+      <c r="B151" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C151" s="31">
+        <v>45502</v>
       </c>
       <c r="D151" s="5"/>
     </row>
@@ -4776,11 +4835,11 @@
       <c r="A152" t="s">
         <v>149</v>
       </c>
-      <c r="B152" s="24" t="s">
+      <c r="B152" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C152" s="24">
-        <v>45528</v>
+      <c r="C152" s="30">
+        <v>45502</v>
       </c>
       <c r="D152" s="5"/>
     </row>
@@ -4788,11 +4847,11 @@
       <c r="A153" t="s">
         <v>150</v>
       </c>
-      <c r="B153" s="26" t="s">
+      <c r="B153" s="41" t="s">
         <v>673</v>
       </c>
-      <c r="C153" s="26">
-        <v>45363</v>
+      <c r="C153" s="31">
+        <v>45502</v>
       </c>
       <c r="D153" s="5">
         <v>24</v>
@@ -4802,11 +4861,11 @@
       <c r="A154" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B154" s="24" t="s">
+      <c r="B154" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C154" s="24">
-        <v>45293</v>
+      <c r="C154" s="34">
+        <v>45503</v>
       </c>
       <c r="D154" s="5">
         <v>16</v>
@@ -4816,11 +4875,11 @@
       <c r="A155" t="s">
         <v>44</v>
       </c>
-      <c r="B155" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C155" s="24">
-        <v>45464</v>
+      <c r="B155" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C155" s="31">
+        <v>45503</v>
       </c>
       <c r="D155" s="5"/>
     </row>
@@ -4828,11 +4887,11 @@
       <c r="A156" t="s">
         <v>152</v>
       </c>
-      <c r="B156" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C156" s="24">
-        <v>45562</v>
+      <c r="B156" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C156" s="30">
+        <v>45503</v>
       </c>
       <c r="D156" s="5">
         <v>12</v>
@@ -4842,11 +4901,11 @@
       <c r="A157" t="s">
         <v>153</v>
       </c>
-      <c r="B157" s="24" t="s">
+      <c r="B157" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C157" s="24">
-        <v>45365</v>
+      <c r="C157" s="31">
+        <v>45504</v>
       </c>
       <c r="D157" s="5">
         <v>4</v>
@@ -4856,11 +4915,11 @@
       <c r="A158" t="s">
         <v>154</v>
       </c>
-      <c r="B158" s="24" t="s">
+      <c r="B158" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C158" s="24">
-        <v>45424</v>
+      <c r="C158" s="30">
+        <v>45504</v>
       </c>
       <c r="D158" s="5">
         <v>11</v>
@@ -4870,11 +4929,11 @@
       <c r="A159" t="s">
         <v>155</v>
       </c>
-      <c r="B159" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C159" s="24">
-        <v>45468</v>
+      <c r="B159" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C159" s="31">
+        <v>45505</v>
       </c>
       <c r="D159" s="5">
         <v>25</v>
@@ -4884,11 +4943,11 @@
       <c r="A160" t="s">
         <v>156</v>
       </c>
-      <c r="B160" s="26" t="s">
+      <c r="B160" s="41" t="s">
         <v>673</v>
       </c>
-      <c r="C160" s="26">
-        <v>45459</v>
+      <c r="C160" s="30">
+        <v>45509</v>
       </c>
       <c r="D160" s="5">
         <v>13</v>
@@ -4898,11 +4957,11 @@
       <c r="A161" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B161" s="24" t="s">
+      <c r="B161" s="39" t="s">
         <v>582</v>
       </c>
       <c r="C161" s="24">
-        <v>45553</v>
+        <v>45509</v>
       </c>
       <c r="D161" s="5"/>
     </row>
@@ -4910,11 +4969,11 @@
       <c r="A162" t="s">
         <v>158</v>
       </c>
-      <c r="B162" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C162" s="24">
-        <v>45583</v>
+      <c r="B162" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C162" s="30">
+        <v>45510</v>
       </c>
       <c r="D162" s="5"/>
     </row>
@@ -4922,11 +4981,11 @@
       <c r="A163" t="s">
         <v>159</v>
       </c>
-      <c r="B163" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C163" s="24">
-        <v>45345</v>
+      <c r="B163" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C163" s="31">
+        <v>45510</v>
       </c>
       <c r="D163" s="5"/>
     </row>
@@ -4934,11 +4993,11 @@
       <c r="A164" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B164" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C164" s="24">
-        <v>45565</v>
+      <c r="B164" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C164" s="30">
+        <v>45511</v>
       </c>
       <c r="D164" s="5">
         <v>9</v>
@@ -4948,11 +5007,11 @@
       <c r="A165" t="s">
         <v>161</v>
       </c>
-      <c r="B165" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C165" s="24">
-        <v>45310</v>
+      <c r="B165" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C165" s="31">
+        <v>45511</v>
       </c>
       <c r="D165" s="5">
         <v>16</v>
@@ -4962,11 +5021,11 @@
       <c r="A166" t="s">
         <v>162</v>
       </c>
-      <c r="B166" s="24" t="s">
+      <c r="B166" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C166" s="24">
-        <v>45539</v>
+      <c r="C166" s="30">
+        <v>45512</v>
       </c>
       <c r="D166" s="5"/>
     </row>
@@ -4974,11 +5033,11 @@
       <c r="A167" t="s">
         <v>163</v>
       </c>
-      <c r="B167" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C167" s="24">
-        <v>45361</v>
+      <c r="B167" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C167" s="31">
+        <v>45512</v>
       </c>
       <c r="D167" s="5"/>
     </row>
@@ -4986,11 +5045,11 @@
       <c r="A168" t="s">
         <v>164</v>
       </c>
-      <c r="B168" s="24" t="s">
+      <c r="B168" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C168" s="24">
-        <v>45599</v>
+      <c r="C168" s="30">
+        <v>45513</v>
       </c>
       <c r="D168" s="5">
         <v>6</v>
@@ -5000,11 +5059,11 @@
       <c r="A169" t="s">
         <v>165</v>
       </c>
-      <c r="B169" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C169" s="24">
-        <v>45355</v>
+      <c r="B169" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C169" s="31">
+        <v>45513</v>
       </c>
       <c r="D169" s="5">
         <v>14</v>
@@ -5014,11 +5073,11 @@
       <c r="A170" t="s">
         <v>166</v>
       </c>
-      <c r="B170" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C170" s="24">
-        <v>45315</v>
+      <c r="B170" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C170" s="30">
+        <v>45517</v>
       </c>
       <c r="D170" s="5">
         <v>29</v>
@@ -5028,11 +5087,11 @@
       <c r="A171" t="s">
         <v>167</v>
       </c>
-      <c r="B171" s="24" t="s">
+      <c r="B171" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C171" s="24">
-        <v>45298</v>
+      <c r="C171" s="31">
+        <v>45517</v>
       </c>
       <c r="D171" s="5">
         <v>13</v>
@@ -5042,11 +5101,11 @@
       <c r="A172" t="s">
         <v>168</v>
       </c>
-      <c r="B172" s="24" t="s">
+      <c r="B172" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C172" s="24">
-        <v>45317</v>
+      <c r="C172" s="30">
+        <v>45517</v>
       </c>
       <c r="D172" s="5">
         <v>23</v>
@@ -5056,11 +5115,11 @@
       <c r="A173" t="s">
         <v>169</v>
       </c>
-      <c r="B173" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C173" s="24">
-        <v>45526</v>
+      <c r="B173" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C173" s="31">
+        <v>45518</v>
       </c>
       <c r="D173" s="5"/>
     </row>
@@ -5068,11 +5127,11 @@
       <c r="A174" t="s">
         <v>170</v>
       </c>
-      <c r="B174" s="27" t="s">
+      <c r="B174" s="42" t="s">
         <v>677</v>
       </c>
-      <c r="C174" s="27">
-        <v>45548</v>
+      <c r="C174" s="30">
+        <v>45520</v>
       </c>
       <c r="D174" s="5"/>
     </row>
@@ -5080,11 +5139,11 @@
       <c r="A175" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B175" s="27" t="s">
-        <v>582</v>
-      </c>
-      <c r="C175" s="27">
-        <v>45634</v>
+      <c r="B175" s="42" t="s">
+        <v>582</v>
+      </c>
+      <c r="C175" s="25">
+        <v>45526</v>
       </c>
       <c r="D175" s="5">
         <v>19</v>
@@ -5094,11 +5153,11 @@
       <c r="A176" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B176" s="28" t="s">
-        <v>646</v>
-      </c>
-      <c r="C176" s="28">
-        <v>45569</v>
+      <c r="B176" s="43" t="s">
+        <v>646</v>
+      </c>
+      <c r="C176" s="35">
+        <v>45531</v>
       </c>
       <c r="D176" s="5"/>
     </row>
@@ -5106,11 +5165,11 @@
       <c r="A177" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B177" s="27" t="s">
-        <v>646</v>
-      </c>
-      <c r="C177" s="27">
-        <v>45482</v>
+      <c r="B177" s="42" t="s">
+        <v>646</v>
+      </c>
+      <c r="C177" s="26">
+        <v>45531</v>
       </c>
       <c r="D177" s="5">
         <v>23</v>
@@ -5120,11 +5179,11 @@
       <c r="A178" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B178" s="27" t="s">
-        <v>646</v>
-      </c>
-      <c r="C178" s="27">
-        <v>45440</v>
+      <c r="B178" s="42" t="s">
+        <v>646</v>
+      </c>
+      <c r="C178" s="35">
+        <v>45540</v>
       </c>
       <c r="D178" s="5"/>
     </row>
@@ -5132,11 +5191,11 @@
       <c r="A179" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B179" s="27" t="s">
+      <c r="B179" s="42" t="s">
         <v>677</v>
       </c>
-      <c r="C179" s="27">
-        <v>45543</v>
+      <c r="C179" s="25">
+        <v>45547</v>
       </c>
       <c r="D179" s="5">
         <v>1</v>
@@ -5146,11 +5205,11 @@
       <c r="A180" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B180" s="27" t="s">
-        <v>582</v>
-      </c>
-      <c r="C180" s="27">
-        <v>45559</v>
+      <c r="B180" s="42" t="s">
+        <v>582</v>
+      </c>
+      <c r="C180" s="35">
+        <v>45546</v>
       </c>
       <c r="D180" s="5">
         <v>6</v>
@@ -5160,11 +5219,11 @@
       <c r="A181" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B181" s="27" t="s">
+      <c r="B181" s="42" t="s">
         <v>677</v>
       </c>
-      <c r="C181" s="27">
-        <v>45556</v>
+      <c r="C181" s="25">
+        <v>45547</v>
       </c>
       <c r="D181" s="5"/>
     </row>
@@ -5172,11 +5231,11 @@
       <c r="A182" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B182" s="27" t="s">
-        <v>582</v>
-      </c>
-      <c r="C182" s="27">
-        <v>45315</v>
+      <c r="B182" s="42" t="s">
+        <v>582</v>
+      </c>
+      <c r="C182" s="35">
+        <v>45553</v>
       </c>
       <c r="D182" s="5">
         <v>10</v>
@@ -5186,11 +5245,11 @@
       <c r="A183" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B183" s="27" t="s">
-        <v>582</v>
-      </c>
-      <c r="C183" s="27">
-        <v>45323</v>
+      <c r="B183" s="42" t="s">
+        <v>582</v>
+      </c>
+      <c r="C183" s="25">
+        <v>45554</v>
       </c>
       <c r="D183" s="5">
         <v>2</v>
@@ -5200,11 +5259,11 @@
       <c r="A184" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B184" s="27" t="s">
-        <v>582</v>
-      </c>
-      <c r="C184" s="27">
-        <v>45327</v>
+      <c r="B184" s="42" t="s">
+        <v>582</v>
+      </c>
+      <c r="C184" s="35">
+        <v>45555</v>
       </c>
       <c r="D184" s="5">
         <v>30</v>
@@ -5214,11 +5273,11 @@
       <c r="A185" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B185" s="27" t="s">
+      <c r="B185" s="42" t="s">
         <v>548</v>
       </c>
-      <c r="C185" s="27">
-        <v>45494</v>
+      <c r="C185" s="25">
+        <v>45555</v>
       </c>
       <c r="D185" s="5"/>
     </row>
@@ -5226,11 +5285,11 @@
       <c r="A186" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B186" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C186" s="24">
-        <v>45640</v>
+      <c r="B186" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C186" s="35">
+        <v>45555</v>
       </c>
       <c r="D186" s="5">
         <v>5</v>
@@ -5240,11 +5299,11 @@
       <c r="A187" t="s">
         <v>183</v>
       </c>
-      <c r="B187" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C187" s="24">
-        <v>45434</v>
+      <c r="B187" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C187" s="31">
+        <v>45555</v>
       </c>
       <c r="D187" s="5">
         <v>16</v>
@@ -5254,11 +5313,11 @@
       <c r="A188" t="s">
         <v>184</v>
       </c>
-      <c r="B188" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C188" s="24">
-        <v>45296</v>
+      <c r="B188" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C188" s="30">
+        <v>45558</v>
       </c>
       <c r="D188" s="5"/>
     </row>
@@ -5266,11 +5325,11 @@
       <c r="A189" t="s">
         <v>185</v>
       </c>
-      <c r="B189" s="24" t="s">
+      <c r="B189" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C189" s="24">
-        <v>45550</v>
+      <c r="C189" s="31">
+        <v>45559</v>
       </c>
       <c r="D189" s="5">
         <v>7</v>
@@ -5280,11 +5339,11 @@
       <c r="A190" t="s">
         <v>186</v>
       </c>
-      <c r="B190" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C190" s="24">
-        <v>45437</v>
+      <c r="B190" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C190" s="30">
+        <v>45560</v>
       </c>
       <c r="D190" s="5"/>
     </row>
@@ -5292,11 +5351,11 @@
       <c r="A191" t="s">
         <v>187</v>
       </c>
-      <c r="B191" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C191" s="24">
-        <v>45430</v>
+      <c r="B191" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C191" s="31">
+        <v>45561</v>
       </c>
       <c r="D191" s="5"/>
     </row>
@@ -5304,11 +5363,11 @@
       <c r="A192" t="s">
         <v>188</v>
       </c>
-      <c r="B192" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C192" s="24">
-        <v>45337</v>
+      <c r="B192" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C192" s="30">
+        <v>45565</v>
       </c>
       <c r="D192" s="5">
         <v>27</v>
@@ -5318,11 +5377,11 @@
       <c r="A193" t="s">
         <v>189</v>
       </c>
-      <c r="B193" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C193" s="24">
-        <v>45502</v>
+      <c r="B193" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C193" s="31">
+        <v>45568</v>
       </c>
       <c r="D193" s="5">
         <v>1</v>
@@ -5332,11 +5391,11 @@
       <c r="A194" t="s">
         <v>190</v>
       </c>
-      <c r="B194" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C194" s="24">
-        <v>45295</v>
+      <c r="B194" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C194" s="30">
+        <v>45568</v>
       </c>
       <c r="D194" s="5">
         <v>26</v>
@@ -5346,11 +5405,11 @@
       <c r="A195" t="s">
         <v>191</v>
       </c>
-      <c r="B195" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C195" s="24">
-        <v>45557</v>
+      <c r="B195" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C195" s="31">
+        <v>45568</v>
       </c>
       <c r="D195" s="5"/>
     </row>
@@ -5358,11 +5417,11 @@
       <c r="A196" t="s">
         <v>192</v>
       </c>
-      <c r="B196" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C196" s="24">
-        <v>45496</v>
+      <c r="B196" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C196" s="30">
+        <v>45572</v>
       </c>
       <c r="D196" s="5"/>
     </row>
@@ -5370,11 +5429,11 @@
       <c r="A197" t="s">
         <v>193</v>
       </c>
-      <c r="B197" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C197" s="24">
-        <v>45360</v>
+      <c r="B197" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C197" s="31">
+        <v>45572</v>
       </c>
       <c r="D197" s="5"/>
     </row>
@@ -5382,11 +5441,11 @@
       <c r="A198" t="s">
         <v>194</v>
       </c>
-      <c r="B198" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C198" s="24">
-        <v>45507</v>
+      <c r="B198" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C198" s="30">
+        <v>45573</v>
       </c>
       <c r="D198" s="5"/>
     </row>
@@ -5394,11 +5453,11 @@
       <c r="A199" t="s">
         <v>195</v>
       </c>
-      <c r="B199" s="24" t="s">
+      <c r="B199" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C199" s="24">
-        <v>45450</v>
+      <c r="C199" s="31">
+        <v>45573</v>
       </c>
       <c r="D199" s="5">
         <v>23</v>
@@ -5408,11 +5467,11 @@
       <c r="A200" t="s">
         <v>196</v>
       </c>
-      <c r="B200" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C200" s="24">
-        <v>45313</v>
+      <c r="B200" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C200" s="30">
+        <v>45573</v>
       </c>
       <c r="D200" s="5"/>
     </row>
@@ -5420,11 +5479,11 @@
       <c r="A201" t="s">
         <v>197</v>
       </c>
-      <c r="B201" s="24" t="s">
+      <c r="B201" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C201" s="24">
-        <v>45343</v>
+      <c r="C201" s="31">
+        <v>45575</v>
       </c>
       <c r="D201" s="5">
         <v>24</v>
@@ -5434,11 +5493,11 @@
       <c r="A202" t="s">
         <v>198</v>
       </c>
-      <c r="B202" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C202" s="24">
-        <v>45626</v>
+      <c r="B202" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C202" s="30">
+        <v>45575</v>
       </c>
       <c r="D202" s="5">
         <v>21</v>
@@ -5448,11 +5507,11 @@
       <c r="A203" t="s">
         <v>199</v>
       </c>
-      <c r="B203" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C203" s="24">
-        <v>45574</v>
+      <c r="B203" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C203" s="31">
+        <v>45575</v>
       </c>
       <c r="D203" s="5">
         <v>6</v>
@@ -5462,12 +5521,10 @@
       <c r="A204" t="s">
         <v>200</v>
       </c>
-      <c r="B204" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C204" s="24">
-        <v>45341</v>
-      </c>
+      <c r="B204" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C204" s="36"/>
       <c r="D204" s="5">
         <v>9</v>
       </c>
@@ -5476,11 +5533,11 @@
       <c r="A205" t="s">
         <v>201</v>
       </c>
-      <c r="B205" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C205" s="24">
-        <v>45471</v>
+      <c r="B205" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C205" s="31">
+        <v>45576</v>
       </c>
       <c r="D205" s="5"/>
     </row>
@@ -5488,11 +5545,11 @@
       <c r="A206" t="s">
         <v>202</v>
       </c>
-      <c r="B206" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C206" s="24">
-        <v>45322</v>
+      <c r="B206" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C206" s="30">
+        <v>45575</v>
       </c>
       <c r="D206" s="5">
         <v>12</v>
@@ -5502,11 +5559,11 @@
       <c r="A207" t="s">
         <v>203</v>
       </c>
-      <c r="B207" s="24" t="s">
+      <c r="B207" s="39" t="s">
         <v>677</v>
       </c>
       <c r="C207" s="31">
-        <v>45654</v>
+        <v>45576</v>
       </c>
       <c r="D207" s="5"/>
     </row>
@@ -5514,11 +5571,11 @@
       <c r="A208" t="s">
         <v>204</v>
       </c>
-      <c r="B208" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C208" s="24">
-        <v>45394</v>
+      <c r="B208" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C208" s="30">
+        <v>45576</v>
       </c>
       <c r="D208" s="5">
         <v>5</v>
@@ -5528,11 +5585,11 @@
       <c r="A209" t="s">
         <v>205</v>
       </c>
-      <c r="B209" s="24" t="s">
+      <c r="B209" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C209" s="24">
-        <v>45385</v>
+      <c r="C209" s="31">
+        <v>45575</v>
       </c>
       <c r="D209" s="5"/>
     </row>
@@ -5540,11 +5597,11 @@
       <c r="A210" t="s">
         <v>206</v>
       </c>
-      <c r="B210" s="24" t="s">
+      <c r="B210" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C210" s="24">
-        <v>45343</v>
+      <c r="C210" s="30">
+        <v>45581</v>
       </c>
       <c r="D210" s="5">
         <v>12</v>
@@ -5554,11 +5611,11 @@
       <c r="A211" t="s">
         <v>207</v>
       </c>
-      <c r="B211" s="24" t="s">
+      <c r="B211" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C211" s="24">
-        <v>45627</v>
+      <c r="C211" s="31">
+        <v>45581</v>
       </c>
       <c r="D211" s="5">
         <v>15</v>
@@ -5568,11 +5625,11 @@
       <c r="A212" t="s">
         <v>208</v>
       </c>
-      <c r="B212" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C212" s="24">
-        <v>45335</v>
+      <c r="B212" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C212" s="30">
+        <v>45581</v>
       </c>
       <c r="D212" s="5">
         <v>7</v>
@@ -5582,11 +5639,11 @@
       <c r="A213" t="s">
         <v>209</v>
       </c>
-      <c r="B213" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C213" s="24">
-        <v>45637</v>
+      <c r="B213" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C213" s="31">
+        <v>45582</v>
       </c>
       <c r="D213" s="5">
         <v>21</v>
@@ -5596,11 +5653,11 @@
       <c r="A214" t="s">
         <v>210</v>
       </c>
-      <c r="B214" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C214" s="24">
-        <v>45300</v>
+      <c r="B214" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C214" s="30">
+        <v>45583</v>
       </c>
       <c r="D214" s="5"/>
     </row>
@@ -5608,11 +5665,11 @@
       <c r="A215" t="s">
         <v>211</v>
       </c>
-      <c r="B215" s="24" t="s">
+      <c r="B215" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C215" s="24">
-        <v>45470</v>
+      <c r="C215" s="31">
+        <v>45587</v>
       </c>
       <c r="D215" s="5"/>
     </row>
@@ -5620,11 +5677,11 @@
       <c r="A216" t="s">
         <v>212</v>
       </c>
-      <c r="B216" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C216" s="24">
-        <v>45416</v>
+      <c r="B216" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C216" s="30">
+        <v>45587</v>
       </c>
       <c r="D216" s="5">
         <v>22</v>
@@ -5634,11 +5691,11 @@
       <c r="A217" t="s">
         <v>213</v>
       </c>
-      <c r="B217" s="24" t="s">
+      <c r="B217" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C217" s="24">
-        <v>45611</v>
+      <c r="C217" s="31">
+        <v>45628</v>
       </c>
       <c r="D217" s="5">
         <v>10</v>
@@ -5648,11 +5705,11 @@
       <c r="A218" t="s">
         <v>214</v>
       </c>
-      <c r="B218" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C218" s="24">
-        <v>45402</v>
+      <c r="B218" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C218" s="30">
+        <v>45589</v>
       </c>
       <c r="D218" s="5">
         <v>1</v>
@@ -5662,11 +5719,11 @@
       <c r="A219" t="s">
         <v>215</v>
       </c>
-      <c r="B219" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C219" s="24">
-        <v>45440</v>
+      <c r="B219" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C219" s="31">
+        <v>45589</v>
       </c>
       <c r="D219" s="5"/>
     </row>
@@ -5674,11 +5731,11 @@
       <c r="A220" t="s">
         <v>216</v>
       </c>
-      <c r="B220" s="24" t="s">
+      <c r="B220" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C220" s="24">
-        <v>45353</v>
+      <c r="C220" s="30">
+        <v>45590</v>
       </c>
       <c r="D220" s="5">
         <v>15</v>
@@ -5688,11 +5745,11 @@
       <c r="A221" t="s">
         <v>217</v>
       </c>
-      <c r="B221" s="24" t="s">
+      <c r="B221" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C221" s="24">
-        <v>45488</v>
+      <c r="C221" s="31">
+        <v>45590</v>
       </c>
       <c r="D221" s="5">
         <v>26</v>
@@ -5702,11 +5759,11 @@
       <c r="A222" t="s">
         <v>218</v>
       </c>
-      <c r="B222" s="24" t="s">
+      <c r="B222" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C222" s="24">
-        <v>45342</v>
+      <c r="C222" s="30">
+        <v>45590</v>
       </c>
       <c r="D222" s="5"/>
     </row>
@@ -5714,11 +5771,11 @@
       <c r="A223" t="s">
         <v>219</v>
       </c>
-      <c r="B223" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C223" s="24">
-        <v>45577</v>
+      <c r="B223" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C223" s="31">
+        <v>45590</v>
       </c>
       <c r="D223" s="5">
         <v>3</v>
@@ -5728,11 +5785,11 @@
       <c r="A224" t="s">
         <v>220</v>
       </c>
-      <c r="B224" s="24" t="s">
+      <c r="B224" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C224" s="24">
-        <v>45601</v>
+      <c r="C224" s="30">
+        <v>45590</v>
       </c>
       <c r="D224" s="5">
         <v>3</v>
@@ -5742,11 +5799,11 @@
       <c r="A225" t="s">
         <v>221</v>
       </c>
-      <c r="B225" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C225" s="24">
-        <v>45565</v>
+      <c r="B225" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C225" s="31">
+        <v>45590</v>
       </c>
       <c r="D225" s="5">
         <v>4</v>
@@ -5756,11 +5813,11 @@
       <c r="A226" t="s">
         <v>222</v>
       </c>
-      <c r="B226" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C226" s="24">
-        <v>45496</v>
+      <c r="B226" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C226" s="30">
+        <v>45593</v>
       </c>
       <c r="D226" s="5">
         <v>14</v>
@@ -5770,11 +5827,11 @@
       <c r="A227" t="s">
         <v>223</v>
       </c>
-      <c r="B227" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C227" s="24">
-        <v>45475</v>
+      <c r="B227" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C227" s="31">
+        <v>45590</v>
       </c>
       <c r="D227" s="5">
         <v>14</v>
@@ -5784,11 +5841,11 @@
       <c r="A228" t="s">
         <v>224</v>
       </c>
-      <c r="B228" s="24" t="s">
+      <c r="B228" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C228" s="24">
-        <v>45308</v>
+      <c r="C228" s="30">
+        <v>45596</v>
       </c>
       <c r="D228" s="5"/>
     </row>
@@ -5796,11 +5853,11 @@
       <c r="A229" t="s">
         <v>225</v>
       </c>
-      <c r="B229" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C229" s="24">
-        <v>45348</v>
+      <c r="B229" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C229" s="31">
+        <v>45596</v>
       </c>
       <c r="D229" s="5">
         <v>22</v>
@@ -5810,11 +5867,11 @@
       <c r="A230" t="s">
         <v>226</v>
       </c>
-      <c r="B230" s="24" t="s">
+      <c r="B230" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C230" s="24">
-        <v>45583</v>
+      <c r="C230" s="30">
+        <v>45597</v>
       </c>
       <c r="D230" s="5">
         <v>2</v>
@@ -5824,11 +5881,11 @@
       <c r="A231" t="s">
         <v>227</v>
       </c>
-      <c r="B231" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C231" s="24">
-        <v>45611</v>
+      <c r="B231" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C231" s="31">
+        <v>45600</v>
       </c>
       <c r="D231" s="5"/>
     </row>
@@ -5836,11 +5893,11 @@
       <c r="A232" t="s">
         <v>228</v>
       </c>
-      <c r="B232" s="24" t="s">
+      <c r="B232" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C232" s="24">
-        <v>45562</v>
+      <c r="C232" s="30">
+        <v>45601</v>
       </c>
       <c r="D232" s="5">
         <v>11</v>
@@ -5850,11 +5907,11 @@
       <c r="A233" t="s">
         <v>229</v>
       </c>
-      <c r="B233" s="24" t="s">
+      <c r="B233" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C233" s="24">
-        <v>45342</v>
+      <c r="C233" s="31">
+        <v>45600</v>
       </c>
       <c r="D233" s="5"/>
     </row>
@@ -5862,11 +5919,11 @@
       <c r="A234" t="s">
         <v>230</v>
       </c>
-      <c r="B234" s="24" t="s">
+      <c r="B234" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C234" s="24">
-        <v>45549</v>
+      <c r="C234" s="30">
+        <v>45601</v>
       </c>
       <c r="D234" s="5">
         <v>25</v>
@@ -5876,11 +5933,11 @@
       <c r="A235" t="s">
         <v>231</v>
       </c>
-      <c r="B235" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C235" s="24">
-        <v>45604</v>
+      <c r="B235" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C235" s="31">
+        <v>45601</v>
       </c>
       <c r="D235" s="5">
         <v>12</v>
@@ -5890,11 +5947,11 @@
       <c r="A236" t="s">
         <v>232</v>
       </c>
-      <c r="B236" s="24" t="s">
+      <c r="B236" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C236" s="24">
-        <v>45355</v>
+      <c r="C236" s="30">
+        <v>45602</v>
       </c>
       <c r="D236" s="5">
         <v>30</v>
@@ -5904,11 +5961,11 @@
       <c r="A237" t="s">
         <v>233</v>
       </c>
-      <c r="B237" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C237" s="24">
-        <v>45566</v>
+      <c r="B237" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C237" s="31">
+        <v>45602</v>
       </c>
       <c r="D237" s="5">
         <v>17</v>
@@ -5918,11 +5975,11 @@
       <c r="A238" t="s">
         <v>234</v>
       </c>
-      <c r="B238" s="24" t="s">
+      <c r="B238" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C238" s="24">
-        <v>45375</v>
+      <c r="C238" s="30">
+        <v>45604</v>
       </c>
       <c r="D238" s="5">
         <v>4</v>
@@ -5932,11 +5989,11 @@
       <c r="A239" t="s">
         <v>235</v>
       </c>
-      <c r="B239" s="24" t="s">
+      <c r="B239" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C239" s="24">
-        <v>45498</v>
+      <c r="C239" s="31">
+        <v>45604</v>
       </c>
       <c r="D239" s="5"/>
     </row>
@@ -5944,11 +6001,11 @@
       <c r="A240" t="s">
         <v>236</v>
       </c>
-      <c r="B240" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C240" s="24">
-        <v>45539</v>
+      <c r="B240" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C240" s="30">
+        <v>45608</v>
       </c>
       <c r="D240" s="5">
         <v>19</v>
@@ -5958,11 +6015,11 @@
       <c r="A241" t="s">
         <v>237</v>
       </c>
-      <c r="B241" s="24" t="s">
+      <c r="B241" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C241" s="24">
-        <v>45465</v>
+      <c r="C241" s="31">
+        <v>45615</v>
       </c>
       <c r="D241" s="5">
         <v>25</v>
@@ -5972,11 +6029,11 @@
       <c r="A242" t="s">
         <v>238</v>
       </c>
-      <c r="B242" s="24" t="s">
+      <c r="B242" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C242" s="24">
-        <v>45512</v>
+      <c r="C242" s="30">
+        <v>45614</v>
       </c>
       <c r="D242" s="5"/>
     </row>
@@ -5984,11 +6041,11 @@
       <c r="A243" t="s">
         <v>239</v>
       </c>
-      <c r="B243" s="24" t="s">
+      <c r="B243" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C243" s="24">
-        <v>45578</v>
+      <c r="C243" s="31">
+        <v>45614</v>
       </c>
       <c r="D243" s="5"/>
     </row>
@@ -5996,11 +6053,11 @@
       <c r="A244" t="s">
         <v>200</v>
       </c>
-      <c r="B244" s="24" t="s">
+      <c r="B244" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C244" s="24">
-        <v>45333</v>
+      <c r="C244" s="30">
+        <v>45615</v>
       </c>
       <c r="D244" s="5">
         <v>27</v>
@@ -6010,11 +6067,11 @@
       <c r="A245" t="s">
         <v>240</v>
       </c>
-      <c r="B245" s="24" t="s">
+      <c r="B245" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C245" s="24">
-        <v>45332</v>
+      <c r="C245" s="31">
+        <v>45617</v>
       </c>
       <c r="D245" s="5">
         <v>3</v>
@@ -6024,11 +6081,11 @@
       <c r="A246" t="s">
         <v>241</v>
       </c>
-      <c r="B246" s="24" t="s">
+      <c r="B246" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C246" s="24">
-        <v>45511</v>
+      <c r="C246" s="30">
+        <v>45617</v>
       </c>
       <c r="D246" s="5">
         <v>27</v>
@@ -6038,11 +6095,11 @@
       <c r="A247" t="s">
         <v>242</v>
       </c>
-      <c r="B247" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C247" s="24">
-        <v>45343</v>
+      <c r="B247" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C247" s="31">
+        <v>45618</v>
       </c>
       <c r="D247" s="5"/>
     </row>
@@ -6050,11 +6107,11 @@
       <c r="A248" t="s">
         <v>243</v>
       </c>
-      <c r="B248" s="24" t="s">
+      <c r="B248" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C248" s="24">
-        <v>45644</v>
+      <c r="C248" s="30">
+        <v>45648</v>
       </c>
       <c r="D248" s="5">
         <v>14</v>
@@ -6064,11 +6121,11 @@
       <c r="A249" t="s">
         <v>244</v>
       </c>
-      <c r="B249" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C249" s="24">
-        <v>45401</v>
+      <c r="B249" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C249" s="31">
+        <v>45621</v>
       </c>
       <c r="D249" s="5">
         <v>12</v>
@@ -6078,11 +6135,11 @@
       <c r="A250" t="s">
         <v>245</v>
       </c>
-      <c r="B250" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C250" s="24">
-        <v>45605</v>
+      <c r="B250" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C250" s="30">
+        <v>45625</v>
       </c>
       <c r="D250" s="5">
         <v>24</v>
@@ -6092,11 +6149,11 @@
       <c r="A251" t="s">
         <v>246</v>
       </c>
-      <c r="B251" s="24" t="s">
+      <c r="B251" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C251" s="24">
-        <v>45569</v>
+      <c r="C251" s="31">
+        <v>45630</v>
       </c>
       <c r="D251" s="5"/>
     </row>
@@ -6104,11 +6161,11 @@
       <c r="A252" t="s">
         <v>247</v>
       </c>
-      <c r="B252" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C252" s="24">
-        <v>45436</v>
+      <c r="B252" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C252" s="30">
+        <v>45632</v>
       </c>
       <c r="D252" s="5"/>
     </row>
@@ -6116,11 +6173,11 @@
       <c r="A253" t="s">
         <v>248</v>
       </c>
-      <c r="B253" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C253" s="24">
-        <v>45500</v>
+      <c r="B253" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C253" s="31">
+        <v>45632</v>
       </c>
       <c r="D253" s="5">
         <v>17</v>
@@ -6130,11 +6187,11 @@
       <c r="A254" t="s">
         <v>249</v>
       </c>
-      <c r="B254" s="24" t="s">
+      <c r="B254" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C254" s="24">
-        <v>45296</v>
+      <c r="C254" s="30">
+        <v>45632</v>
       </c>
       <c r="D254" s="5"/>
     </row>
@@ -6142,11 +6199,11 @@
       <c r="A255" t="s">
         <v>250</v>
       </c>
-      <c r="B255" s="24" t="s">
+      <c r="B255" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C255" s="24">
-        <v>45579</v>
+      <c r="C255" s="31">
+        <v>45632</v>
       </c>
       <c r="D255" s="5"/>
     </row>
@@ -6154,11 +6211,11 @@
       <c r="A256" t="s">
         <v>251</v>
       </c>
-      <c r="B256" s="24" t="s">
+      <c r="B256" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C256" s="24">
-        <v>45363</v>
+      <c r="C256" s="30">
+        <v>45636</v>
       </c>
       <c r="D256" s="5">
         <v>20</v>
@@ -6168,11 +6225,11 @@
       <c r="A257" t="s">
         <v>252</v>
       </c>
-      <c r="B257" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C257" s="24">
-        <v>45402</v>
+      <c r="B257" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C257" s="31">
+        <v>45637</v>
       </c>
       <c r="D257" s="5"/>
     </row>
@@ -6180,11 +6237,11 @@
       <c r="A258" t="s">
         <v>253</v>
       </c>
-      <c r="B258" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C258" s="24">
-        <v>45602</v>
+      <c r="B258" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C258" s="30">
+        <v>45639</v>
       </c>
       <c r="D258" s="5">
         <v>17</v>
@@ -6194,11 +6251,11 @@
       <c r="A259" t="s">
         <v>254</v>
       </c>
-      <c r="B259" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C259" s="24">
-        <v>45542</v>
+      <c r="B259" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C259" s="31">
+        <v>45638</v>
       </c>
       <c r="D259" s="5">
         <v>6</v>
@@ -6208,11 +6265,11 @@
       <c r="A260" t="s">
         <v>255</v>
       </c>
-      <c r="B260" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C260" s="24">
-        <v>45574</v>
+      <c r="B260" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C260" s="30">
+        <v>45638</v>
       </c>
       <c r="D260" s="5">
         <v>22</v>
@@ -6222,11 +6279,11 @@
       <c r="A261" t="s">
         <v>256</v>
       </c>
-      <c r="B261" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C261" s="24">
-        <v>45628</v>
+      <c r="B261" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C261" s="31">
+        <v>45638</v>
       </c>
       <c r="D261" s="5"/>
     </row>
@@ -6234,11 +6291,11 @@
       <c r="A262" t="s">
         <v>257</v>
       </c>
-      <c r="B262" s="24" t="s">
+      <c r="B262" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C262" s="24">
-        <v>45515</v>
+      <c r="C262" s="30">
+        <v>45642</v>
       </c>
       <c r="D262" s="5"/>
     </row>
@@ -6246,11 +6303,11 @@
       <c r="A263" t="s">
         <v>258</v>
       </c>
-      <c r="B263" s="24" t="s">
+      <c r="B263" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C263" s="24">
-        <v>45381</v>
+      <c r="C263" s="31">
+        <v>45646</v>
       </c>
       <c r="D263" s="5"/>
     </row>
@@ -6258,11 +6315,11 @@
       <c r="A264" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="B264" s="24" t="s">
+      <c r="B264" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C264" s="24">
-        <v>45606</v>
+      <c r="C264" s="30">
+        <v>46011</v>
       </c>
       <c r="D264" s="5">
         <v>2</v>
@@ -6272,11 +6329,11 @@
       <c r="A265" t="s">
         <v>260</v>
       </c>
-      <c r="B265" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C265" s="24">
-        <v>45486</v>
+      <c r="B265" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C265" s="31">
+        <v>45646</v>
       </c>
       <c r="D265" s="5"/>
     </row>
@@ -6284,11 +6341,11 @@
       <c r="A266" t="s">
         <v>261</v>
       </c>
-      <c r="B266" s="24" t="s">
+      <c r="B266" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C266" s="24">
-        <v>45468</v>
+      <c r="C266" s="30">
+        <v>45650</v>
       </c>
       <c r="D266" s="5">
         <v>21</v>
@@ -6298,11 +6355,11 @@
       <c r="A267" t="s">
         <v>262</v>
       </c>
-      <c r="B267" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C267" s="24">
-        <v>45369</v>
+      <c r="B267" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C267" s="31">
+        <v>45659</v>
       </c>
       <c r="D267" s="5">
         <v>17</v>
@@ -6312,11 +6369,11 @@
       <c r="A268" t="s">
         <v>263</v>
       </c>
-      <c r="B268" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C268" s="24">
-        <v>45346</v>
+      <c r="B268" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C268" s="30">
+        <v>45659</v>
       </c>
       <c r="D268" s="5">
         <v>24</v>
@@ -6326,11 +6383,11 @@
       <c r="A269" t="s">
         <v>264</v>
       </c>
-      <c r="B269" s="24" t="s">
+      <c r="B269" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C269" s="24">
-        <v>45520</v>
+      <c r="C269" s="31">
+        <v>45666</v>
       </c>
       <c r="D269" s="5"/>
     </row>
@@ -6338,11 +6395,11 @@
       <c r="A270" t="s">
         <v>265</v>
       </c>
-      <c r="B270" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C270" s="24">
-        <v>45446</v>
+      <c r="B270" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C270" s="30">
+        <v>45667</v>
       </c>
       <c r="D270" s="5">
         <v>23</v>
@@ -6352,11 +6409,11 @@
       <c r="A271" t="s">
         <v>266</v>
       </c>
-      <c r="B271" s="24" t="s">
+      <c r="B271" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C271" s="24">
-        <v>45343</v>
+      <c r="C271" s="31">
+        <v>45670</v>
       </c>
       <c r="D271" s="5"/>
     </row>
@@ -6364,11 +6421,11 @@
       <c r="A272" t="s">
         <v>267</v>
       </c>
-      <c r="B272" s="24" t="s">
+      <c r="B272" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C272" s="24">
-        <v>45485</v>
+      <c r="C272" s="30">
+        <v>45671</v>
       </c>
       <c r="D272" s="5">
         <v>17</v>
@@ -6378,11 +6435,11 @@
       <c r="A273" t="s">
         <v>268</v>
       </c>
-      <c r="B273" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C273" s="24">
-        <v>45619</v>
+      <c r="B273" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C273" s="31">
+        <v>45671</v>
       </c>
       <c r="D273" s="5"/>
     </row>
@@ -6390,11 +6447,11 @@
       <c r="A274" t="s">
         <v>269</v>
       </c>
-      <c r="B274" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C274" s="24">
-        <v>45576</v>
+      <c r="B274" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C274" s="30">
+        <v>45671</v>
       </c>
       <c r="D274" s="5">
         <v>4</v>
@@ -6404,11 +6461,11 @@
       <c r="A275" t="s">
         <v>270</v>
       </c>
-      <c r="B275" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C275" s="24">
-        <v>45454</v>
+      <c r="B275" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C275" s="31">
+        <v>45671</v>
       </c>
       <c r="D275" s="5"/>
     </row>
@@ -6416,11 +6473,11 @@
       <c r="A276" t="s">
         <v>271</v>
       </c>
-      <c r="B276" s="24" t="s">
+      <c r="B276" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C276" s="24">
-        <v>45326</v>
+      <c r="C276" s="30">
+        <v>45673</v>
       </c>
       <c r="D276" s="5">
         <v>5</v>
@@ -6430,11 +6487,11 @@
       <c r="A277" t="s">
         <v>272</v>
       </c>
-      <c r="B277" s="24" t="s">
+      <c r="B277" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C277" s="24">
-        <v>45446</v>
+      <c r="C277" s="31">
+        <v>45670</v>
       </c>
       <c r="D277" s="5">
         <v>8</v>
@@ -6444,11 +6501,11 @@
       <c r="A278" t="s">
         <v>273</v>
       </c>
-      <c r="B278" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C278" s="24">
-        <v>45406</v>
+      <c r="B278" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C278" s="30">
+        <v>45678</v>
       </c>
       <c r="D278" s="5">
         <v>4</v>
@@ -6458,11 +6515,11 @@
       <c r="A279" t="s">
         <v>274</v>
       </c>
-      <c r="B279" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C279" s="24">
-        <v>45385</v>
+      <c r="B279" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C279" s="31">
+        <v>45679</v>
       </c>
       <c r="D279" s="5"/>
     </row>
@@ -6470,11 +6527,11 @@
       <c r="A280" t="s">
         <v>275</v>
       </c>
-      <c r="B280" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C280" s="24">
-        <v>45537</v>
+      <c r="B280" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C280" s="30">
+        <v>45680</v>
       </c>
       <c r="D280" s="5">
         <v>6</v>
@@ -6484,11 +6541,11 @@
       <c r="A281" t="s">
         <v>276</v>
       </c>
-      <c r="B281" s="24" t="s">
+      <c r="B281" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C281" s="24">
-        <v>45612</v>
+      <c r="C281" s="31">
+        <v>45680</v>
       </c>
       <c r="D281" s="5">
         <v>19</v>
@@ -6498,10 +6555,12 @@
       <c r="A282" t="s">
         <v>277</v>
       </c>
-      <c r="B282" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C282" s="32"/>
+      <c r="B282" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C282" s="30">
+        <v>45680</v>
+      </c>
       <c r="D282" s="5">
         <v>29</v>
       </c>
@@ -6510,10 +6569,10 @@
       <c r="A283" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="B283" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C283" s="32"/>
+      <c r="B283" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C283" s="37"/>
       <c r="D283" s="5">
         <v>12</v>
       </c>
@@ -6522,10 +6581,10 @@
       <c r="A284" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="B284" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C284" s="32"/>
+      <c r="B284" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C284" s="36"/>
       <c r="D284" s="5">
         <v>17</v>
       </c>
@@ -6534,10 +6593,10 @@
       <c r="A285" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="B285" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C285" s="32"/>
+      <c r="B285" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C285" s="37"/>
       <c r="D285" s="5">
         <v>29</v>
       </c>
@@ -6546,10 +6605,10 @@
       <c r="A286" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="B286" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C286" s="32"/>
+      <c r="B286" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C286" s="36"/>
       <c r="D286" s="5">
         <v>23</v>
       </c>
@@ -6558,10 +6617,10 @@
       <c r="A287" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="B287" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C287" s="32"/>
+      <c r="B287" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C287" s="37"/>
       <c r="D287" s="5">
         <v>12</v>
       </c>
@@ -6570,10 +6629,10 @@
       <c r="A288" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="B288" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C288" s="32"/>
+      <c r="B288" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C288" s="36"/>
       <c r="D288" s="5">
         <v>23</v>
       </c>
@@ -6582,20 +6641,20 @@
       <c r="A289" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="B289" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C289" s="32"/>
+      <c r="B289" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C289" s="37"/>
       <c r="D289" s="5"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="B290" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C290" s="32"/>
+      <c r="B290" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C290" s="36"/>
       <c r="D290" s="5">
         <v>14</v>
       </c>
@@ -6604,10 +6663,10 @@
       <c r="A291" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="B291" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C291" s="32"/>
+      <c r="B291" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C291" s="37"/>
       <c r="D291" s="5">
         <v>5</v>
       </c>
@@ -6616,10 +6675,10 @@
       <c r="A292" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="B292" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C292" s="32"/>
+      <c r="B292" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C292" s="36"/>
       <c r="D292" s="5">
         <v>11</v>
       </c>
@@ -6628,20 +6687,20 @@
       <c r="A293" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="B293" s="24" t="s">
+      <c r="B293" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C293" s="32"/>
+      <c r="C293" s="37"/>
       <c r="D293" s="5"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="B294" s="24" t="s">
+      <c r="B294" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C294" s="32"/>
+      <c r="C294" s="36"/>
       <c r="D294" s="5">
         <v>9</v>
       </c>
@@ -6650,20 +6709,20 @@
       <c r="A295" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="B295" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C295" s="32"/>
+      <c r="B295" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C295" s="37"/>
       <c r="D295" s="5"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="B296" s="24" t="s">
+      <c r="B296" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C296" s="32"/>
+      <c r="C296" s="36"/>
       <c r="D296" s="5">
         <v>28</v>
       </c>
@@ -6672,20 +6731,20 @@
       <c r="A297" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="B297" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C297" s="32"/>
+      <c r="B297" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C297" s="37"/>
       <c r="D297" s="5"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="B298" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C298" s="32"/>
+      <c r="B298" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C298" s="36"/>
       <c r="D298" s="5">
         <v>30</v>
       </c>
@@ -6694,10 +6753,10 @@
       <c r="A299" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="B299" s="24" t="s">
+      <c r="B299" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C299" s="33"/>
+      <c r="C299" s="37"/>
       <c r="D299" s="5">
         <v>30</v>
       </c>
@@ -6706,11 +6765,11 @@
       <c r="A300" t="s">
         <v>296</v>
       </c>
-      <c r="B300" s="24" t="s">
+      <c r="B300" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C300" s="24">
-        <v>45464</v>
+      <c r="C300" s="30">
+        <v>45684</v>
       </c>
       <c r="D300" s="5">
         <v>6</v>
@@ -6720,11 +6779,11 @@
       <c r="A301" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="B301" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C301" s="24">
-        <v>45298</v>
+      <c r="B301" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C301" s="31">
+        <v>45685</v>
       </c>
       <c r="D301" s="5">
         <v>6</v>
@@ -6734,11 +6793,11 @@
       <c r="A302" t="s">
         <v>298</v>
       </c>
-      <c r="B302" s="24" t="s">
+      <c r="B302" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C302" s="24">
-        <v>45310</v>
+      <c r="C302" s="30">
+        <v>45685</v>
       </c>
       <c r="D302" s="5"/>
     </row>
@@ -6746,11 +6805,11 @@
       <c r="A303" t="s">
         <v>299</v>
       </c>
-      <c r="B303" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C303" s="24">
-        <v>45357</v>
+      <c r="B303" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C303" s="31">
+        <v>45685</v>
       </c>
       <c r="D303" s="5">
         <v>5</v>
@@ -6760,11 +6819,11 @@
       <c r="A304" t="s">
         <v>300</v>
       </c>
-      <c r="B304" s="24" t="s">
+      <c r="B304" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C304" s="24">
-        <v>45390</v>
+      <c r="C304" s="30">
+        <v>45684</v>
       </c>
       <c r="D304" s="5">
         <v>2</v>
@@ -6774,11 +6833,11 @@
       <c r="A305" t="s">
         <v>301</v>
       </c>
-      <c r="B305" s="24" t="s">
+      <c r="B305" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C305" s="24">
-        <v>45434</v>
+      <c r="C305" s="31">
+        <v>45685</v>
       </c>
       <c r="D305" s="5">
         <v>30</v>
@@ -6788,11 +6847,11 @@
       <c r="A306" t="s">
         <v>302</v>
       </c>
-      <c r="B306" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C306" s="24">
-        <v>45547</v>
+      <c r="B306" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C306" s="30">
+        <v>45687</v>
       </c>
       <c r="D306" s="5">
         <v>27</v>
@@ -6802,11 +6861,11 @@
       <c r="A307" t="s">
         <v>303</v>
       </c>
-      <c r="B307" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C307" s="24">
-        <v>45419</v>
+      <c r="B307" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C307" s="31">
+        <v>45687</v>
       </c>
       <c r="D307" s="5">
         <v>21</v>
@@ -6816,11 +6875,11 @@
       <c r="A308" t="s">
         <v>304</v>
       </c>
-      <c r="B308" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C308" s="24">
-        <v>45440</v>
+      <c r="B308" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C308" s="30">
+        <v>45685</v>
       </c>
       <c r="D308" s="5">
         <v>1</v>
@@ -6830,11 +6889,11 @@
       <c r="A309" t="s">
         <v>305</v>
       </c>
-      <c r="B309" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C309" s="24">
-        <v>45652</v>
+      <c r="B309" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C309" s="31">
+        <v>45688</v>
       </c>
       <c r="D309" s="5">
         <v>13</v>
@@ -6844,11 +6903,11 @@
       <c r="A310" t="s">
         <v>306</v>
       </c>
-      <c r="B310" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C310" s="24">
-        <v>45547</v>
+      <c r="B310" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C310" s="30">
+        <v>45688</v>
       </c>
       <c r="D310" s="5"/>
     </row>
@@ -6856,11 +6915,11 @@
       <c r="A311" t="s">
         <v>307</v>
       </c>
-      <c r="B311" s="24" t="s">
+      <c r="B311" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C311" s="24">
-        <v>45408</v>
+      <c r="C311" s="31">
+        <v>45691</v>
       </c>
       <c r="D311" s="5"/>
     </row>
@@ -6868,11 +6927,11 @@
       <c r="A312" t="s">
         <v>308</v>
       </c>
-      <c r="B312" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C312" s="24">
-        <v>45511</v>
+      <c r="B312" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C312" s="30">
+        <v>45691</v>
       </c>
       <c r="D312" s="5">
         <v>17</v>
@@ -6882,11 +6941,11 @@
       <c r="A313" t="s">
         <v>309</v>
       </c>
-      <c r="B313" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C313" s="24">
-        <v>45357</v>
+      <c r="B313" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C313" s="31">
+        <v>45691</v>
       </c>
       <c r="D313" s="5">
         <v>21</v>
@@ -6896,11 +6955,11 @@
       <c r="A314" t="s">
         <v>310</v>
       </c>
-      <c r="B314" s="24" t="s">
+      <c r="B314" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C314" s="24">
-        <v>45535</v>
+      <c r="C314" s="30">
+        <v>45692</v>
       </c>
       <c r="D314" s="5">
         <v>30</v>
@@ -6910,11 +6969,11 @@
       <c r="A315" t="s">
         <v>311</v>
       </c>
-      <c r="B315" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C315" s="24">
-        <v>45500</v>
+      <c r="B315" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C315" s="31">
+        <v>45692</v>
       </c>
       <c r="D315" s="5">
         <v>6</v>
@@ -6924,11 +6983,11 @@
       <c r="A316" t="s">
         <v>312</v>
       </c>
-      <c r="B316" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C316" s="24">
-        <v>45293</v>
+      <c r="B316" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C316" s="30">
+        <v>45692</v>
       </c>
       <c r="D316" s="5"/>
     </row>
@@ -6936,11 +6995,11 @@
       <c r="A317" t="s">
         <v>313</v>
       </c>
-      <c r="B317" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C317" s="24">
-        <v>45590</v>
+      <c r="B317" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C317" s="31">
+        <v>45692</v>
       </c>
       <c r="D317" s="5"/>
     </row>
@@ -6948,11 +7007,11 @@
       <c r="A318" t="s">
         <v>314</v>
       </c>
-      <c r="B318" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C318" s="24">
-        <v>45473</v>
+      <c r="B318" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C318" s="30">
+        <v>45692</v>
       </c>
       <c r="D318" s="5"/>
     </row>
@@ -6960,11 +7019,11 @@
       <c r="A319" t="s">
         <v>315</v>
       </c>
-      <c r="B319" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C319" s="24">
-        <v>45384</v>
+      <c r="B319" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C319" s="31">
+        <v>45693</v>
       </c>
       <c r="D319" s="5">
         <v>23</v>
@@ -6974,11 +7033,11 @@
       <c r="A320" t="s">
         <v>316</v>
       </c>
-      <c r="B320" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C320" s="24">
-        <v>45617</v>
+      <c r="B320" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C320" s="30">
+        <v>45694</v>
       </c>
       <c r="D320" s="5">
         <v>2</v>
@@ -6988,11 +7047,11 @@
       <c r="A321" t="s">
         <v>317</v>
       </c>
-      <c r="B321" s="24" t="s">
+      <c r="B321" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C321" s="24">
-        <v>45432</v>
+      <c r="C321" s="31">
+        <v>45694</v>
       </c>
       <c r="D321" s="5"/>
     </row>
@@ -7000,11 +7059,11 @@
       <c r="A322" t="s">
         <v>318</v>
       </c>
-      <c r="B322" s="24" t="s">
+      <c r="B322" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C322" s="24">
-        <v>45514</v>
+      <c r="C322" s="30">
+        <v>45694</v>
       </c>
       <c r="D322" s="5"/>
     </row>
@@ -7012,11 +7071,11 @@
       <c r="A323" t="s">
         <v>319</v>
       </c>
-      <c r="B323" s="24" t="s">
+      <c r="B323" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C323" s="24">
-        <v>45648</v>
+      <c r="C323" s="31">
+        <v>45695</v>
       </c>
       <c r="D323" s="5"/>
     </row>
@@ -7024,11 +7083,11 @@
       <c r="A324" t="s">
         <v>320</v>
       </c>
-      <c r="B324" s="24" t="s">
+      <c r="B324" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C324" s="24">
-        <v>45409</v>
+      <c r="C324" s="30">
+        <v>45695</v>
       </c>
       <c r="D324" s="5">
         <v>29</v>
@@ -7038,11 +7097,11 @@
       <c r="A325" t="s">
         <v>321</v>
       </c>
-      <c r="B325" s="24" t="s">
+      <c r="B325" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C325" s="24">
-        <v>45330</v>
+      <c r="C325" s="31">
+        <v>45698</v>
       </c>
       <c r="D325" s="5">
         <v>17</v>
@@ -7052,11 +7111,11 @@
       <c r="A326" t="s">
         <v>322</v>
       </c>
-      <c r="B326" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C326" s="24">
-        <v>45615</v>
+      <c r="B326" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C326" s="30">
+        <v>45698</v>
       </c>
       <c r="D326" s="5"/>
     </row>
@@ -7064,11 +7123,11 @@
       <c r="A327" t="s">
         <v>323</v>
       </c>
-      <c r="B327" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C327" s="24">
-        <v>45331</v>
+      <c r="B327" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C327" s="31">
+        <v>45699</v>
       </c>
       <c r="D327" s="5">
         <v>29</v>
@@ -7078,11 +7137,11 @@
       <c r="A328" t="s">
         <v>324</v>
       </c>
-      <c r="B328" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C328" s="24">
-        <v>45399</v>
+      <c r="B328" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C328" s="30">
+        <v>45699</v>
       </c>
       <c r="D328" s="5"/>
     </row>
@@ -7090,11 +7149,11 @@
       <c r="A329" t="s">
         <v>325</v>
       </c>
-      <c r="B329" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C329" s="24">
-        <v>45313</v>
+      <c r="B329" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C329" s="31">
+        <v>45699</v>
       </c>
       <c r="D329" s="5">
         <v>14</v>
@@ -7104,11 +7163,11 @@
       <c r="A330" t="s">
         <v>326</v>
       </c>
-      <c r="B330" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C330" s="24">
-        <v>45330</v>
+      <c r="B330" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C330" s="30">
+        <v>45699</v>
       </c>
       <c r="D330" s="5"/>
     </row>
@@ -7116,11 +7175,11 @@
       <c r="A331" t="s">
         <v>327</v>
       </c>
-      <c r="B331" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C331" s="24">
-        <v>45307</v>
+      <c r="B331" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C331" s="31">
+        <v>45699</v>
       </c>
       <c r="D331" s="5">
         <v>3</v>
@@ -7130,11 +7189,11 @@
       <c r="A332" t="s">
         <v>328</v>
       </c>
-      <c r="B332" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C332" s="24">
-        <v>45551</v>
+      <c r="B332" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C332" s="30">
+        <v>45699</v>
       </c>
       <c r="D332" s="5"/>
     </row>
@@ -7142,11 +7201,11 @@
       <c r="A333" t="s">
         <v>329</v>
       </c>
-      <c r="B333" s="24" t="s">
+      <c r="B333" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C333" s="24">
-        <v>45350</v>
+      <c r="C333" s="31">
+        <v>45699</v>
       </c>
       <c r="D333" s="5">
         <v>3</v>
@@ -7156,11 +7215,11 @@
       <c r="A334" t="s">
         <v>330</v>
       </c>
-      <c r="B334" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C334" s="24">
-        <v>45557</v>
+      <c r="B334" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C334" s="30">
+        <v>45699</v>
       </c>
       <c r="D334" s="5"/>
     </row>
@@ -7168,11 +7227,11 @@
       <c r="A335" t="s">
         <v>331</v>
       </c>
-      <c r="B335" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C335" s="24">
-        <v>45381</v>
+      <c r="B335" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C335" s="31">
+        <v>45701</v>
       </c>
       <c r="D335" s="5"/>
     </row>
@@ -7180,11 +7239,11 @@
       <c r="A336" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="B336" s="24" t="s">
+      <c r="B336" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C336" s="24">
-        <v>45359</v>
+      <c r="C336" s="30">
+        <v>45701</v>
       </c>
       <c r="D336" s="5"/>
     </row>
@@ -7192,11 +7251,11 @@
       <c r="A337" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="B337" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C337" s="24">
-        <v>45399</v>
+      <c r="B337" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C337" s="31">
+        <v>45702</v>
       </c>
       <c r="D337" s="5"/>
     </row>
@@ -7204,11 +7263,11 @@
       <c r="A338" t="s">
         <v>334</v>
       </c>
-      <c r="B338" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C338" s="24">
-        <v>45644</v>
+      <c r="B338" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C338" s="30">
+        <v>45706</v>
       </c>
       <c r="D338" s="5">
         <v>23</v>
@@ -7218,11 +7277,11 @@
       <c r="A339" t="s">
         <v>335</v>
       </c>
-      <c r="B339" s="24" t="s">
+      <c r="B339" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C339" s="24">
-        <v>45557</v>
+      <c r="C339" s="31">
+        <v>45706</v>
       </c>
       <c r="D339" s="5">
         <v>7</v>
@@ -7232,11 +7291,11 @@
       <c r="A340" t="s">
         <v>336</v>
       </c>
-      <c r="B340" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C340" s="24">
-        <v>45487</v>
+      <c r="B340" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C340" s="30">
+        <v>45707</v>
       </c>
       <c r="D340" s="5">
         <v>30</v>
@@ -7246,11 +7305,11 @@
       <c r="A341" t="s">
         <v>337</v>
       </c>
-      <c r="B341" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C341" s="24">
-        <v>45462</v>
+      <c r="B341" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C341" s="31">
+        <v>45707</v>
       </c>
       <c r="D341" s="5"/>
     </row>
@@ -7258,11 +7317,11 @@
       <c r="A342" t="s">
         <v>338</v>
       </c>
-      <c r="B342" s="24" t="s">
+      <c r="B342" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C342" s="24">
-        <v>45632</v>
+      <c r="C342" s="30">
+        <v>45713</v>
       </c>
       <c r="D342" s="5">
         <v>29</v>
@@ -7272,11 +7331,11 @@
       <c r="A343" t="s">
         <v>339</v>
       </c>
-      <c r="B343" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C343" s="24">
-        <v>45587</v>
+      <c r="B343" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C343" s="31">
+        <v>45713</v>
       </c>
       <c r="D343" s="5"/>
     </row>
@@ -7284,11 +7343,11 @@
       <c r="A344" t="s">
         <v>340</v>
       </c>
-      <c r="B344" s="24" t="s">
+      <c r="B344" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C344" s="24">
-        <v>45396</v>
+      <c r="C344" s="30">
+        <v>45713</v>
       </c>
       <c r="D344" s="5"/>
     </row>
@@ -7296,11 +7355,11 @@
       <c r="A345" t="s">
         <v>341</v>
       </c>
-      <c r="B345" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C345" s="24">
-        <v>45387</v>
+      <c r="B345" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C345" s="31">
+        <v>45713</v>
       </c>
       <c r="D345" s="5">
         <v>6</v>
@@ -7310,11 +7369,11 @@
       <c r="A346" t="s">
         <v>342</v>
       </c>
-      <c r="B346" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C346" s="24">
-        <v>45465</v>
+      <c r="B346" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C346" s="30">
+        <v>45713</v>
       </c>
       <c r="D346" s="5">
         <v>2</v>
@@ -7324,11 +7383,11 @@
       <c r="A347" t="s">
         <v>343</v>
       </c>
-      <c r="B347" s="24" t="s">
+      <c r="B347" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C347" s="24">
-        <v>45582</v>
+      <c r="C347" s="31">
+        <v>45714</v>
       </c>
       <c r="D347" s="5"/>
     </row>
@@ -7336,11 +7395,11 @@
       <c r="A348" t="s">
         <v>344</v>
       </c>
-      <c r="B348" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C348" s="24">
-        <v>45371</v>
+      <c r="B348" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C348" s="30">
+        <v>45713</v>
       </c>
       <c r="D348" s="5"/>
     </row>
@@ -7348,11 +7407,11 @@
       <c r="A349" t="s">
         <v>345</v>
       </c>
-      <c r="B349" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C349" s="24">
-        <v>45487</v>
+      <c r="B349" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C349" s="31">
+        <v>45714</v>
       </c>
       <c r="D349" s="5"/>
     </row>
@@ -7360,11 +7419,11 @@
       <c r="A350" t="s">
         <v>346</v>
       </c>
-      <c r="B350" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C350" s="24">
-        <v>45441</v>
+      <c r="B350" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C350" s="30">
+        <v>45715</v>
       </c>
       <c r="D350" s="5">
         <v>18</v>
@@ -7374,11 +7433,11 @@
       <c r="A351" t="s">
         <v>347</v>
       </c>
-      <c r="B351" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C351" s="24">
-        <v>45550</v>
+      <c r="B351" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C351" s="31">
+        <v>45715</v>
       </c>
       <c r="D351" s="5"/>
     </row>
@@ -7386,11 +7445,11 @@
       <c r="A352" t="s">
         <v>348</v>
       </c>
-      <c r="B352" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C352" s="24">
-        <v>45510</v>
+      <c r="B352" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C352" s="30">
+        <v>45719</v>
       </c>
       <c r="D352" s="5">
         <v>12</v>
@@ -7400,11 +7459,11 @@
       <c r="A353" t="s">
         <v>349</v>
       </c>
-      <c r="B353" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C353" s="24">
-        <v>45356</v>
+      <c r="B353" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C353" s="31">
+        <v>45719</v>
       </c>
       <c r="D353" s="5"/>
     </row>
@@ -7412,11 +7471,11 @@
       <c r="A354" t="s">
         <v>350</v>
       </c>
-      <c r="B354" s="24" t="s">
+      <c r="B354" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C354" s="24">
-        <v>45452</v>
+      <c r="C354" s="30">
+        <v>45719</v>
       </c>
       <c r="D354" s="5"/>
     </row>
@@ -7424,11 +7483,11 @@
       <c r="A355" t="s">
         <v>351</v>
       </c>
-      <c r="B355" s="24" t="s">
+      <c r="B355" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C355" s="24">
-        <v>45626</v>
+      <c r="C355" s="31">
+        <v>45719</v>
       </c>
       <c r="D355" s="5"/>
     </row>
@@ -7436,11 +7495,11 @@
       <c r="A356" t="s">
         <v>352</v>
       </c>
-      <c r="B356" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C356" s="24">
-        <v>45556</v>
+      <c r="B356" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C356" s="30">
+        <v>45719</v>
       </c>
       <c r="D356" s="5">
         <v>26</v>
@@ -7450,11 +7509,11 @@
       <c r="A357" t="s">
         <v>353</v>
       </c>
-      <c r="B357" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C357" s="24">
-        <v>45388</v>
+      <c r="B357" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C357" s="31">
+        <v>45719</v>
       </c>
       <c r="D357" s="5">
         <v>13</v>
@@ -7464,11 +7523,11 @@
       <c r="A358" t="s">
         <v>354</v>
       </c>
-      <c r="B358" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C358" s="24">
-        <v>45489</v>
+      <c r="B358" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C358" s="30">
+        <v>45719</v>
       </c>
       <c r="D358" s="5">
         <v>4</v>
@@ -7478,11 +7537,11 @@
       <c r="A359" t="s">
         <v>355</v>
       </c>
-      <c r="B359" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C359" s="24">
-        <v>45649</v>
+      <c r="B359" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C359" s="31">
+        <v>45719</v>
       </c>
       <c r="D359" s="5"/>
     </row>
@@ -7490,11 +7549,11 @@
       <c r="A360" t="s">
         <v>356</v>
       </c>
-      <c r="B360" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C360" s="24">
-        <v>45593</v>
+      <c r="B360" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C360" s="30">
+        <v>45719</v>
       </c>
       <c r="D360" s="5"/>
     </row>
@@ -7502,11 +7561,11 @@
       <c r="A361" t="s">
         <v>357</v>
       </c>
-      <c r="B361" s="24" t="s">
+      <c r="B361" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C361" s="24">
-        <v>45613</v>
+      <c r="C361" s="31">
+        <v>45720</v>
       </c>
       <c r="D361" s="5"/>
     </row>
@@ -7514,11 +7573,11 @@
       <c r="A362" t="s">
         <v>358</v>
       </c>
-      <c r="B362" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C362" s="24">
-        <v>45424</v>
+      <c r="B362" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C362" s="30">
+        <v>45722</v>
       </c>
       <c r="D362" s="5">
         <v>12</v>
@@ -7528,11 +7587,11 @@
       <c r="A363" t="s">
         <v>359</v>
       </c>
-      <c r="B363" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C363" s="24">
-        <v>45629</v>
+      <c r="B363" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C363" s="31">
+        <v>45726</v>
       </c>
       <c r="D363" s="5">
         <v>8</v>
@@ -7542,11 +7601,11 @@
       <c r="A364" t="s">
         <v>360</v>
       </c>
-      <c r="B364" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C364" s="24">
-        <v>45542</v>
+      <c r="B364" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C364" s="30">
+        <v>45729</v>
       </c>
       <c r="D364" s="5">
         <v>9</v>
@@ -7556,11 +7615,11 @@
       <c r="A365" t="s">
         <v>361</v>
       </c>
-      <c r="B365" s="24" t="s">
+      <c r="B365" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C365" s="24">
-        <v>45347</v>
+      <c r="C365" s="31">
+        <v>45727</v>
       </c>
       <c r="D365" s="5"/>
     </row>
@@ -7568,11 +7627,11 @@
       <c r="A366" t="s">
         <v>362</v>
       </c>
-      <c r="B366" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C366" s="24">
-        <v>45390</v>
+      <c r="B366" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C366" s="30">
+        <v>45729</v>
       </c>
       <c r="D366" s="5"/>
     </row>
@@ -7580,11 +7639,11 @@
       <c r="A367" t="s">
         <v>363</v>
       </c>
-      <c r="B367" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C367" s="24">
-        <v>45515</v>
+      <c r="B367" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C367" s="31">
+        <v>45731</v>
       </c>
       <c r="D367" s="5">
         <v>6</v>
@@ -7594,11 +7653,11 @@
       <c r="A368" t="s">
         <v>364</v>
       </c>
-      <c r="B368" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C368" s="24">
-        <v>45485</v>
+      <c r="B368" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C368" s="30">
+        <v>45733</v>
       </c>
       <c r="D368" s="5">
         <v>7</v>
@@ -7608,11 +7667,11 @@
       <c r="A369" t="s">
         <v>365</v>
       </c>
-      <c r="B369" s="24" t="s">
+      <c r="B369" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C369" s="24">
-        <v>45395</v>
+      <c r="C369" s="31">
+        <v>45735</v>
       </c>
       <c r="D369" s="5"/>
     </row>
@@ -7620,11 +7679,11 @@
       <c r="A370" t="s">
         <v>366</v>
       </c>
-      <c r="B370" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C370" s="24">
-        <v>45403</v>
+      <c r="B370" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C370" s="30">
+        <v>45736</v>
       </c>
       <c r="D370" s="5">
         <v>29</v>
@@ -7634,11 +7693,11 @@
       <c r="A371" t="s">
         <v>367</v>
       </c>
-      <c r="B371" s="24" t="s">
+      <c r="B371" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C371" s="24">
-        <v>45581</v>
+      <c r="C371" s="31">
+        <v>45737</v>
       </c>
       <c r="D371" s="5"/>
     </row>
@@ -7646,11 +7705,11 @@
       <c r="A372" t="s">
         <v>368</v>
       </c>
-      <c r="B372" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C372" s="24">
-        <v>45515</v>
+      <c r="B372" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C372" s="30">
+        <v>45737</v>
       </c>
       <c r="D372" s="5">
         <v>5</v>
@@ -7660,11 +7719,11 @@
       <c r="A373" t="s">
         <v>369</v>
       </c>
-      <c r="B373" s="24" t="s">
+      <c r="B373" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C373" s="24">
-        <v>45340</v>
+      <c r="C373" s="31">
+        <v>45737</v>
       </c>
       <c r="D373" s="5"/>
     </row>
@@ -7672,11 +7731,11 @@
       <c r="A374" t="s">
         <v>370</v>
       </c>
-      <c r="B374" s="24" t="s">
+      <c r="B374" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C374" s="24">
-        <v>45651</v>
+      <c r="C374" s="30">
+        <v>45737</v>
       </c>
       <c r="D374" s="5"/>
     </row>
@@ -7684,11 +7743,11 @@
       <c r="A375" t="s">
         <v>371</v>
       </c>
-      <c r="B375" s="24" t="s">
+      <c r="B375" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C375" s="24">
-        <v>45414</v>
+      <c r="C375" s="31">
+        <v>45737</v>
       </c>
       <c r="D375" s="5">
         <v>2</v>
@@ -7698,11 +7757,11 @@
       <c r="A376" t="s">
         <v>372</v>
       </c>
-      <c r="B376" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C376" s="24">
-        <v>45408</v>
+      <c r="B376" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C376" s="30">
+        <v>45736</v>
       </c>
       <c r="D376" s="5">
         <v>9</v>
@@ -7712,11 +7771,11 @@
       <c r="A377" t="s">
         <v>373</v>
       </c>
-      <c r="B377" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C377" s="24">
-        <v>45563</v>
+      <c r="B377" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C377" s="31">
+        <v>45740</v>
       </c>
       <c r="D377" s="5">
         <v>28</v>
@@ -7726,11 +7785,11 @@
       <c r="A378" t="s">
         <v>374</v>
       </c>
-      <c r="B378" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C378" s="24">
-        <v>45592</v>
+      <c r="B378" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C378" s="30">
+        <v>45741</v>
       </c>
       <c r="D378" s="5"/>
     </row>
@@ -7738,11 +7797,11 @@
       <c r="A379" t="s">
         <v>375</v>
       </c>
-      <c r="B379" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C379" s="24">
-        <v>45528</v>
+      <c r="B379" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C379" s="31">
+        <v>45741</v>
       </c>
       <c r="D379" s="5">
         <v>12</v>
@@ -7752,11 +7811,11 @@
       <c r="A380" t="s">
         <v>376</v>
       </c>
-      <c r="B380" s="24" t="s">
+      <c r="B380" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C380" s="24">
-        <v>45571</v>
+      <c r="C380" s="30">
+        <v>45743</v>
       </c>
       <c r="D380" s="5"/>
     </row>
@@ -7764,11 +7823,11 @@
       <c r="A381" t="s">
         <v>377</v>
       </c>
-      <c r="B381" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C381" s="24">
-        <v>45477</v>
+      <c r="B381" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C381" s="31">
+        <v>45743</v>
       </c>
       <c r="D381" s="5"/>
     </row>
@@ -7776,11 +7835,11 @@
       <c r="A382" t="s">
         <v>378</v>
       </c>
-      <c r="B382" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C382" s="24">
-        <v>45565</v>
+      <c r="B382" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C382" s="30">
+        <v>45743</v>
       </c>
       <c r="D382" s="5"/>
     </row>
@@ -7788,11 +7847,11 @@
       <c r="A383" t="s">
         <v>379</v>
       </c>
-      <c r="B383" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C383" s="24">
-        <v>45563</v>
+      <c r="B383" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C383" s="31">
+        <v>45743</v>
       </c>
       <c r="D383" s="5">
         <v>11</v>
@@ -7802,11 +7861,11 @@
       <c r="A384" t="s">
         <v>380</v>
       </c>
-      <c r="B384" s="24" t="s">
+      <c r="B384" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C384" s="24">
-        <v>45381</v>
+      <c r="C384" s="30">
+        <v>45743</v>
       </c>
       <c r="D384" s="5"/>
     </row>
@@ -7814,11 +7873,11 @@
       <c r="A385" t="s">
         <v>381</v>
       </c>
-      <c r="B385" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C385" s="24">
-        <v>45509</v>
+      <c r="B385" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C385" s="31">
+        <v>45743</v>
       </c>
       <c r="D385" s="5">
         <v>11</v>
@@ -7828,11 +7887,11 @@
       <c r="A386" t="s">
         <v>382</v>
       </c>
-      <c r="B386" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C386" s="24">
-        <v>45311</v>
+      <c r="B386" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C386" s="30">
+        <v>45743</v>
       </c>
       <c r="D386" s="5">
         <v>15</v>
@@ -7842,11 +7901,11 @@
       <c r="A387" t="s">
         <v>383</v>
       </c>
-      <c r="B387" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C387" s="24">
-        <v>45314</v>
+      <c r="B387" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C387" s="31">
+        <v>45743</v>
       </c>
       <c r="D387" s="5"/>
     </row>
@@ -7854,11 +7913,11 @@
       <c r="A388" t="s">
         <v>384</v>
       </c>
-      <c r="B388" s="24" t="s">
+      <c r="B388" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C388" s="24">
-        <v>45527</v>
+      <c r="C388" s="30">
+        <v>45743</v>
       </c>
       <c r="D388" s="5">
         <v>17</v>
@@ -7868,11 +7927,11 @@
       <c r="A389" t="s">
         <v>385</v>
       </c>
-      <c r="B389" s="24" t="s">
+      <c r="B389" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C389" s="24">
-        <v>45401</v>
+      <c r="C389" s="31">
+        <v>45743</v>
       </c>
       <c r="D389" s="5"/>
     </row>
@@ -7880,11 +7939,11 @@
       <c r="A390" t="s">
         <v>386</v>
       </c>
-      <c r="B390" s="24" t="s">
+      <c r="B390" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C390" s="24">
-        <v>45514</v>
+      <c r="C390" s="30">
+        <v>45743</v>
       </c>
       <c r="D390" s="5">
         <v>20</v>
@@ -7894,11 +7953,11 @@
       <c r="A391" t="s">
         <v>387</v>
       </c>
-      <c r="B391" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C391" s="24">
-        <v>45567</v>
+      <c r="B391" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C391" s="31">
+        <v>45743</v>
       </c>
       <c r="D391" s="5"/>
     </row>
@@ -7906,11 +7965,11 @@
       <c r="A392" t="s">
         <v>388</v>
       </c>
-      <c r="B392" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C392" s="24">
-        <v>45336</v>
+      <c r="B392" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C392" s="30">
+        <v>45743</v>
       </c>
       <c r="D392" s="5">
         <v>9</v>
@@ -7920,11 +7979,11 @@
       <c r="A393" t="s">
         <v>389</v>
       </c>
-      <c r="B393" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C393" s="24">
-        <v>45622</v>
+      <c r="B393" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C393" s="31">
+        <v>45743</v>
       </c>
       <c r="D393" s="5">
         <v>24</v>
@@ -7934,11 +7993,11 @@
       <c r="A394" t="s">
         <v>390</v>
       </c>
-      <c r="B394" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C394" s="24">
-        <v>45493</v>
+      <c r="B394" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C394" s="30">
+        <v>45743</v>
       </c>
       <c r="D394" s="5"/>
     </row>
@@ -7946,11 +8005,11 @@
       <c r="A395" t="s">
         <v>391</v>
       </c>
-      <c r="B395" s="24" t="s">
+      <c r="B395" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C395" s="24">
-        <v>45483</v>
+      <c r="C395" s="31">
+        <v>45743</v>
       </c>
       <c r="D395" s="5"/>
     </row>
@@ -7958,11 +8017,11 @@
       <c r="A396" t="s">
         <v>392</v>
       </c>
-      <c r="B396" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C396" s="24">
-        <v>45398</v>
+      <c r="B396" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C396" s="30">
+        <v>45743</v>
       </c>
       <c r="D396" s="5">
         <v>17</v>
@@ -7972,11 +8031,11 @@
       <c r="A397" t="s">
         <v>393</v>
       </c>
-      <c r="B397" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C397" s="24">
-        <v>45366</v>
+      <c r="B397" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C397" s="31">
+        <v>45743</v>
       </c>
       <c r="D397" s="5">
         <v>11</v>
@@ -7986,11 +8045,11 @@
       <c r="A398" t="s">
         <v>394</v>
       </c>
-      <c r="B398" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C398" s="24">
-        <v>45383</v>
+      <c r="B398" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C398" s="30">
+        <v>45743</v>
       </c>
       <c r="D398" s="5"/>
     </row>
@@ -7998,11 +8057,11 @@
       <c r="A399" t="s">
         <v>395</v>
       </c>
-      <c r="B399" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C399" s="24">
-        <v>45507</v>
+      <c r="B399" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C399" s="31">
+        <v>45743</v>
       </c>
       <c r="D399" s="5">
         <v>22</v>
@@ -8012,11 +8071,11 @@
       <c r="A400" t="s">
         <v>396</v>
       </c>
-      <c r="B400" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C400" s="24">
-        <v>45394</v>
+      <c r="B400" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C400" s="30">
+        <v>45747</v>
       </c>
       <c r="D400" s="5">
         <v>16</v>
@@ -8026,11 +8085,11 @@
       <c r="A401" t="s">
         <v>397</v>
       </c>
-      <c r="B401" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C401" s="24">
-        <v>45558</v>
+      <c r="B401" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C401" s="31">
+        <v>45747</v>
       </c>
       <c r="D401" s="5"/>
     </row>
@@ -8038,11 +8097,11 @@
       <c r="A402" t="s">
         <v>398</v>
       </c>
-      <c r="B402" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C402" s="24">
-        <v>45413</v>
+      <c r="B402" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C402" s="30">
+        <v>45747</v>
       </c>
       <c r="D402" s="5">
         <v>28</v>
@@ -8052,11 +8111,11 @@
       <c r="A403" t="s">
         <v>399</v>
       </c>
-      <c r="B403" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C403" s="24">
-        <v>45517</v>
+      <c r="B403" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C403" s="31">
+        <v>45747</v>
       </c>
       <c r="D403" s="5"/>
     </row>
@@ -8064,11 +8123,11 @@
       <c r="A404" t="s">
         <v>400</v>
       </c>
-      <c r="B404" s="24" t="s">
+      <c r="B404" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C404" s="24">
-        <v>45392</v>
+      <c r="C404" s="30">
+        <v>45747</v>
       </c>
       <c r="D404" s="5">
         <v>8</v>
@@ -8078,11 +8137,11 @@
       <c r="A405" t="s">
         <v>401</v>
       </c>
-      <c r="B405" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C405" s="24">
-        <v>45396</v>
+      <c r="B405" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C405" s="31">
+        <v>45747</v>
       </c>
       <c r="D405" s="5">
         <v>17</v>
@@ -8092,11 +8151,11 @@
       <c r="A406" t="s">
         <v>402</v>
       </c>
-      <c r="B406" s="24" t="s">
+      <c r="B406" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C406" s="24">
-        <v>45347</v>
+      <c r="C406" s="30">
+        <v>45747</v>
       </c>
       <c r="D406" s="5"/>
     </row>
@@ -8104,11 +8163,11 @@
       <c r="A407" t="s">
         <v>403</v>
       </c>
-      <c r="B407" s="24" t="s">
+      <c r="B407" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C407" s="24">
-        <v>45428</v>
+      <c r="C407" s="31">
+        <v>45747</v>
       </c>
       <c r="D407" s="5">
         <v>16</v>
@@ -8118,11 +8177,11 @@
       <c r="A408" t="s">
         <v>404</v>
       </c>
-      <c r="B408" s="24" t="s">
+      <c r="B408" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C408" s="24">
-        <v>45496</v>
+      <c r="C408" s="30">
+        <v>45747</v>
       </c>
       <c r="D408" s="5">
         <v>16</v>
@@ -8132,11 +8191,11 @@
       <c r="A409" t="s">
         <v>405</v>
       </c>
-      <c r="B409" s="24" t="s">
+      <c r="B409" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C409" s="24">
-        <v>45547</v>
+      <c r="C409" s="31">
+        <v>45748</v>
       </c>
       <c r="D409" s="5">
         <v>29</v>
@@ -8146,11 +8205,11 @@
       <c r="A410" t="s">
         <v>406</v>
       </c>
-      <c r="B410" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C410" s="24">
-        <v>45355</v>
+      <c r="B410" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C410" s="30">
+        <v>45748</v>
       </c>
       <c r="D410" s="5">
         <v>24</v>
@@ -8160,11 +8219,11 @@
       <c r="A411" t="s">
         <v>407</v>
       </c>
-      <c r="B411" s="24" t="s">
+      <c r="B411" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C411" s="24">
-        <v>45355</v>
+      <c r="C411" s="31">
+        <v>45750</v>
       </c>
       <c r="D411" s="5"/>
     </row>
@@ -8172,11 +8231,11 @@
       <c r="A412" t="s">
         <v>408</v>
       </c>
-      <c r="B412" s="24" t="s">
+      <c r="B412" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C412" s="24">
-        <v>45302</v>
+      <c r="C412" s="30">
+        <v>45750</v>
       </c>
       <c r="D412" s="5">
         <v>17</v>
@@ -8186,11 +8245,11 @@
       <c r="A413" t="s">
         <v>409</v>
       </c>
-      <c r="B413" s="24" t="s">
+      <c r="B413" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C413" s="24">
-        <v>45342</v>
+      <c r="C413" s="31">
+        <v>45750</v>
       </c>
       <c r="D413" s="5"/>
     </row>
@@ -8198,11 +8257,11 @@
       <c r="A414" t="s">
         <v>410</v>
       </c>
-      <c r="B414" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C414" s="24">
-        <v>45479</v>
+      <c r="B414" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C414" s="30">
+        <v>45750</v>
       </c>
       <c r="D414" s="5"/>
     </row>
@@ -8210,11 +8269,11 @@
       <c r="A415" t="s">
         <v>411</v>
       </c>
-      <c r="B415" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C415" s="24">
-        <v>45487</v>
+      <c r="B415" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C415" s="31">
+        <v>45750</v>
       </c>
       <c r="D415" s="5"/>
     </row>
@@ -8222,11 +8281,11 @@
       <c r="A416" t="s">
         <v>412</v>
       </c>
-      <c r="B416" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C416" s="24">
-        <v>45436</v>
+      <c r="B416" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C416" s="30">
+        <v>45750</v>
       </c>
       <c r="D416" s="5">
         <v>21</v>
@@ -8236,11 +8295,11 @@
       <c r="A417" t="s">
         <v>413</v>
       </c>
-      <c r="B417" s="24" t="s">
+      <c r="B417" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C417" s="24">
-        <v>45596</v>
+      <c r="C417" s="31">
+        <v>45750</v>
       </c>
       <c r="D417" s="5">
         <v>9</v>
@@ -8250,11 +8309,11 @@
       <c r="A418" t="s">
         <v>414</v>
       </c>
-      <c r="B418" s="24" t="s">
+      <c r="B418" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C418" s="24">
-        <v>45392</v>
+      <c r="C418" s="30">
+        <v>45750</v>
       </c>
       <c r="D418" s="5">
         <v>4</v>
@@ -8264,11 +8323,11 @@
       <c r="A419" t="s">
         <v>415</v>
       </c>
-      <c r="B419" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C419" s="24">
-        <v>45308</v>
+      <c r="B419" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C419" s="31">
+        <v>45750</v>
       </c>
       <c r="D419" s="5">
         <v>16</v>
@@ -8278,11 +8337,11 @@
       <c r="A420" t="s">
         <v>412</v>
       </c>
-      <c r="B420" s="24" t="s">
+      <c r="B420" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C420" s="24">
-        <v>45442</v>
+      <c r="C420" s="30">
+        <v>45750</v>
       </c>
       <c r="D420" s="5">
         <v>15</v>
@@ -8292,11 +8351,11 @@
       <c r="A421" t="s">
         <v>416</v>
       </c>
-      <c r="B421" s="24" t="s">
+      <c r="B421" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C421" s="24">
-        <v>45523</v>
+      <c r="C421" s="31">
+        <v>45750</v>
       </c>
       <c r="D421" s="5"/>
     </row>
@@ -8304,11 +8363,11 @@
       <c r="A422" t="s">
         <v>417</v>
       </c>
-      <c r="B422" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C422" s="24">
-        <v>45383</v>
+      <c r="B422" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C422" s="30">
+        <v>45750</v>
       </c>
       <c r="D422" s="5"/>
     </row>
@@ -8316,11 +8375,11 @@
       <c r="A423" t="s">
         <v>418</v>
       </c>
-      <c r="B423" s="24" t="s">
+      <c r="B423" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C423" s="24">
-        <v>45575</v>
+      <c r="C423" s="31">
+        <v>45750</v>
       </c>
       <c r="D423" s="5">
         <v>18</v>
@@ -8330,11 +8389,11 @@
       <c r="A424" t="s">
         <v>419</v>
       </c>
-      <c r="B424" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C424" s="24">
-        <v>45415</v>
+      <c r="B424" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C424" s="30">
+        <v>45750</v>
       </c>
       <c r="D424" s="5">
         <v>17</v>
@@ -8344,11 +8403,11 @@
       <c r="A425" t="s">
         <v>420</v>
       </c>
-      <c r="B425" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C425" s="24">
-        <v>45495</v>
+      <c r="B425" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C425" s="31">
+        <v>45750</v>
       </c>
       <c r="D425" s="5">
         <v>7</v>
@@ -8358,11 +8417,11 @@
       <c r="A426" t="s">
         <v>421</v>
       </c>
-      <c r="B426" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C426" s="24">
-        <v>45324</v>
+      <c r="B426" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C426" s="30">
+        <v>45750</v>
       </c>
       <c r="D426" s="5"/>
     </row>
@@ -8370,11 +8429,11 @@
       <c r="A427" t="s">
         <v>422</v>
       </c>
-      <c r="B427" s="24" t="s">
+      <c r="B427" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C427" s="24">
-        <v>45523</v>
+      <c r="C427" s="31">
+        <v>45750</v>
       </c>
       <c r="D427" s="5">
         <v>25</v>
@@ -8384,11 +8443,11 @@
       <c r="A428" t="s">
         <v>423</v>
       </c>
-      <c r="B428" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C428" s="24">
-        <v>45377</v>
+      <c r="B428" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C428" s="30">
+        <v>45750</v>
       </c>
       <c r="D428" s="5"/>
     </row>
@@ -8396,11 +8455,11 @@
       <c r="A429" t="s">
         <v>424</v>
       </c>
-      <c r="B429" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C429" s="24">
-        <v>45538</v>
+      <c r="B429" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C429" s="31">
+        <v>45750</v>
       </c>
       <c r="D429" s="5"/>
     </row>
@@ -8408,11 +8467,11 @@
       <c r="A430" t="s">
         <v>425</v>
       </c>
-      <c r="B430" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C430" s="24">
-        <v>45527</v>
+      <c r="B430" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C430" s="30">
+        <v>45755</v>
       </c>
       <c r="D430" s="5">
         <v>9</v>
@@ -8422,11 +8481,11 @@
       <c r="A431" t="s">
         <v>426</v>
       </c>
-      <c r="B431" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C431" s="24">
-        <v>45356</v>
+      <c r="B431" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C431" s="31">
+        <v>45755</v>
       </c>
       <c r="D431" s="5">
         <v>11</v>
@@ -8436,11 +8495,11 @@
       <c r="A432" t="s">
         <v>427</v>
       </c>
-      <c r="B432" s="24" t="s">
+      <c r="B432" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C432" s="24">
-        <v>45482</v>
+      <c r="C432" s="30">
+        <v>45755</v>
       </c>
       <c r="D432" s="5"/>
     </row>
@@ -8448,11 +8507,11 @@
       <c r="A433" t="s">
         <v>428</v>
       </c>
-      <c r="B433" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C433" s="24">
-        <v>45638</v>
+      <c r="B433" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C433" s="31">
+        <v>45756</v>
       </c>
       <c r="D433" s="5">
         <v>30</v>
@@ -8462,11 +8521,11 @@
       <c r="A434" t="s">
         <v>429</v>
       </c>
-      <c r="B434" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C434" s="24">
-        <v>45500</v>
+      <c r="B434" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C434" s="30">
+        <v>45756</v>
       </c>
       <c r="D434" s="5">
         <v>4</v>
@@ -8476,11 +8535,11 @@
       <c r="A435" t="s">
         <v>430</v>
       </c>
-      <c r="B435" s="24" t="s">
+      <c r="B435" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C435" s="24">
-        <v>45298</v>
+      <c r="C435" s="31">
+        <v>45756</v>
       </c>
       <c r="D435" s="5">
         <v>11</v>
@@ -8490,11 +8549,11 @@
       <c r="A436" t="s">
         <v>431</v>
       </c>
-      <c r="B436" s="24" t="s">
+      <c r="B436" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C436" s="24">
-        <v>45611</v>
+      <c r="C436" s="30">
+        <v>45756</v>
       </c>
       <c r="D436" s="5"/>
     </row>
@@ -8502,11 +8561,11 @@
       <c r="A437" t="s">
         <v>432</v>
       </c>
-      <c r="B437" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C437" s="24">
-        <v>45440</v>
+      <c r="B437" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C437" s="31">
+        <v>45758</v>
       </c>
       <c r="D437" s="5">
         <v>7</v>
@@ -8516,11 +8575,11 @@
       <c r="A438" t="s">
         <v>433</v>
       </c>
-      <c r="B438" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C438" s="24">
-        <v>45656</v>
+      <c r="B438" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C438" s="30">
+        <v>45758</v>
       </c>
       <c r="D438" s="5">
         <v>24</v>
@@ -8530,11 +8589,11 @@
       <c r="A439" t="s">
         <v>434</v>
       </c>
-      <c r="B439" s="24" t="s">
+      <c r="B439" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C439" s="24">
-        <v>45515</v>
+      <c r="C439" s="31">
+        <v>45758</v>
       </c>
       <c r="D439" s="5"/>
     </row>
@@ -8542,11 +8601,11 @@
       <c r="A440" t="s">
         <v>435</v>
       </c>
-      <c r="B440" s="24" t="s">
+      <c r="B440" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C440" s="24">
-        <v>45447</v>
+      <c r="C440" s="30">
+        <v>45758</v>
       </c>
       <c r="D440" s="5"/>
     </row>
@@ -8554,11 +8613,11 @@
       <c r="A441" t="s">
         <v>436</v>
       </c>
-      <c r="B441" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C441" s="24">
-        <v>45632</v>
+      <c r="B441" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C441" s="31">
+        <v>45762</v>
       </c>
       <c r="D441" s="5">
         <v>2</v>
@@ -8568,11 +8627,11 @@
       <c r="A442" t="s">
         <v>437</v>
       </c>
-      <c r="B442" s="24" t="s">
+      <c r="B442" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C442" s="24">
-        <v>45520</v>
+      <c r="C442" s="30">
+        <v>45762</v>
       </c>
       <c r="D442" s="5"/>
     </row>
@@ -8580,11 +8639,11 @@
       <c r="A443" t="s">
         <v>438</v>
       </c>
-      <c r="B443" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C443" s="24">
-        <v>45600</v>
+      <c r="B443" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C443" s="31">
+        <v>45762</v>
       </c>
       <c r="D443" s="5">
         <v>29</v>
@@ -8594,11 +8653,11 @@
       <c r="A444" t="s">
         <v>439</v>
       </c>
-      <c r="B444" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C444" s="24">
-        <v>45295</v>
+      <c r="B444" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C444" s="30">
+        <v>45762</v>
       </c>
       <c r="D444" s="5">
         <v>11</v>
@@ -8608,11 +8667,11 @@
       <c r="A445" t="s">
         <v>440</v>
       </c>
-      <c r="B445" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C445" s="24">
-        <v>45635</v>
+      <c r="B445" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C445" s="31">
+        <v>45762</v>
       </c>
       <c r="D445" s="5">
         <v>5</v>
@@ -8622,11 +8681,11 @@
       <c r="A446" t="s">
         <v>441</v>
       </c>
-      <c r="B446" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C446" s="24">
-        <v>45501</v>
+      <c r="B446" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C446" s="30">
+        <v>45763</v>
       </c>
       <c r="D446" s="5">
         <v>27</v>
@@ -8636,11 +8695,11 @@
       <c r="A447" t="s">
         <v>442</v>
       </c>
-      <c r="B447" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C447" s="24">
-        <v>45362</v>
+      <c r="B447" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C447" s="31">
+        <v>45768</v>
       </c>
       <c r="D447" s="5">
         <v>25</v>
@@ -8650,11 +8709,11 @@
       <c r="A448" t="s">
         <v>443</v>
       </c>
-      <c r="B448" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C448" s="24">
-        <v>45627</v>
+      <c r="B448" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C448" s="30">
+        <v>45768</v>
       </c>
       <c r="D448" s="5"/>
     </row>
@@ -8662,11 +8721,11 @@
       <c r="A449" t="s">
         <v>444</v>
       </c>
-      <c r="B449" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C449" s="24">
-        <v>45536</v>
+      <c r="B449" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C449" s="31">
+        <v>45769</v>
       </c>
       <c r="D449" s="5">
         <v>11</v>
@@ -8676,11 +8735,11 @@
       <c r="A450" t="s">
         <v>445</v>
       </c>
-      <c r="B450" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C450" s="24">
-        <v>45338</v>
+      <c r="B450" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C450" s="30">
+        <v>45769</v>
       </c>
       <c r="D450" s="5">
         <v>21</v>
@@ -8690,11 +8749,11 @@
       <c r="A451" t="s">
         <v>446</v>
       </c>
-      <c r="B451" s="24" t="s">
+      <c r="B451" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C451" s="24">
-        <v>45461</v>
+      <c r="C451" s="31">
+        <v>45770</v>
       </c>
       <c r="D451" s="5">
         <v>28</v>
@@ -8704,11 +8763,11 @@
       <c r="A452" t="s">
         <v>447</v>
       </c>
-      <c r="B452" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C452" s="24">
-        <v>45622</v>
+      <c r="B452" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C452" s="30">
+        <v>45770</v>
       </c>
       <c r="D452" s="5">
         <v>15</v>
@@ -8718,11 +8777,11 @@
       <c r="A453" t="s">
         <v>448</v>
       </c>
-      <c r="B453" s="24" t="s">
+      <c r="B453" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C453" s="24">
-        <v>45417</v>
+      <c r="C453" s="31">
+        <v>45770</v>
       </c>
       <c r="D453" s="5">
         <v>21</v>
@@ -8732,11 +8791,11 @@
       <c r="A454" t="s">
         <v>449</v>
       </c>
-      <c r="B454" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C454" s="24">
-        <v>45329</v>
+      <c r="B454" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C454" s="30">
+        <v>45772</v>
       </c>
       <c r="D454" s="5">
         <v>19</v>
@@ -8746,11 +8805,11 @@
       <c r="A455" t="s">
         <v>450</v>
       </c>
-      <c r="B455" s="24" t="s">
+      <c r="B455" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C455" s="24">
-        <v>45336</v>
+      <c r="C455" s="31">
+        <v>45775</v>
       </c>
       <c r="D455" s="5">
         <v>24</v>
@@ -8760,11 +8819,11 @@
       <c r="A456" t="s">
         <v>451</v>
       </c>
-      <c r="B456" s="24" t="s">
+      <c r="B456" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C456" s="24">
-        <v>45640</v>
+      <c r="C456" s="30">
+        <v>45775</v>
       </c>
       <c r="D456" s="5">
         <v>17</v>
@@ -8774,11 +8833,11 @@
       <c r="A457" t="s">
         <v>451</v>
       </c>
-      <c r="B457" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C457" s="24">
-        <v>45654</v>
+      <c r="B457" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C457" s="31">
+        <v>45775</v>
       </c>
       <c r="D457" s="5"/>
     </row>
@@ -8786,11 +8845,11 @@
       <c r="A458" t="s">
         <v>452</v>
       </c>
-      <c r="B458" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C458" s="24">
-        <v>45597</v>
+      <c r="B458" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C458" s="30">
+        <v>45770</v>
       </c>
       <c r="D458" s="5">
         <v>10</v>
@@ -8800,11 +8859,11 @@
       <c r="A459" t="s">
         <v>453</v>
       </c>
-      <c r="B459" s="24" t="s">
+      <c r="B459" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C459" s="24">
-        <v>45366</v>
+      <c r="C459" s="31">
+        <v>45779</v>
       </c>
       <c r="D459" s="5">
         <v>5</v>
@@ -8814,11 +8873,11 @@
       <c r="A460" t="s">
         <v>454</v>
       </c>
-      <c r="B460" s="24" t="s">
+      <c r="B460" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C460" s="24">
-        <v>45407</v>
+      <c r="C460" s="30">
+        <v>45779</v>
       </c>
       <c r="D460" s="5">
         <v>12</v>
@@ -8828,11 +8887,11 @@
       <c r="A461" t="s">
         <v>455</v>
       </c>
-      <c r="B461" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C461" s="24">
-        <v>45315</v>
+      <c r="B461" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C461" s="31">
+        <v>45779</v>
       </c>
       <c r="D461" s="5"/>
     </row>
@@ -8840,11 +8899,11 @@
       <c r="A462" t="s">
         <v>456</v>
       </c>
-      <c r="B462" s="24" t="s">
+      <c r="B462" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C462" s="24">
-        <v>45593</v>
+      <c r="C462" s="30">
+        <v>45779</v>
       </c>
       <c r="D462" s="5">
         <v>8</v>
@@ -8854,11 +8913,11 @@
       <c r="A463" t="s">
         <v>457</v>
       </c>
-      <c r="B463" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C463" s="24">
-        <v>45536</v>
+      <c r="B463" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C463" s="31">
+        <v>45779</v>
       </c>
       <c r="D463" s="5"/>
     </row>
@@ -8866,11 +8925,11 @@
       <c r="A464" t="s">
         <v>458</v>
       </c>
-      <c r="B464" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C464" s="24">
-        <v>45524</v>
+      <c r="B464" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C464" s="30">
+        <v>45782</v>
       </c>
       <c r="D464" s="5">
         <v>5</v>
@@ -8880,11 +8939,11 @@
       <c r="A465" t="s">
         <v>459</v>
       </c>
-      <c r="B465" s="24" t="s">
+      <c r="B465" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C465" s="24">
-        <v>45304</v>
+      <c r="C465" s="31">
+        <v>45783</v>
       </c>
       <c r="D465" s="5"/>
     </row>
@@ -8892,11 +8951,11 @@
       <c r="A466" t="s">
         <v>460</v>
       </c>
-      <c r="B466" s="24" t="s">
+      <c r="B466" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C466" s="24">
-        <v>45326</v>
+      <c r="C466" s="30">
+        <v>45784</v>
       </c>
       <c r="D466" s="5"/>
     </row>
@@ -8904,11 +8963,11 @@
       <c r="A467" t="s">
         <v>461</v>
       </c>
-      <c r="B467" s="24" t="s">
+      <c r="B467" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C467" s="24">
-        <v>45484</v>
+      <c r="C467" s="31">
+        <v>45785</v>
       </c>
       <c r="D467" s="5"/>
     </row>
@@ -8916,11 +8975,11 @@
       <c r="A468" t="s">
         <v>462</v>
       </c>
-      <c r="B468" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C468" s="24">
-        <v>45450</v>
+      <c r="B468" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C468" s="30">
+        <v>45790</v>
       </c>
       <c r="D468" s="5"/>
     </row>
@@ -8928,11 +8987,11 @@
       <c r="A469" t="s">
         <v>463</v>
       </c>
-      <c r="B469" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C469" s="24">
-        <v>45481</v>
+      <c r="B469" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C469" s="31">
+        <v>45791</v>
       </c>
       <c r="D469" s="5"/>
     </row>
@@ -8940,11 +8999,11 @@
       <c r="A470" t="s">
         <v>464</v>
       </c>
-      <c r="B470" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C470" s="24">
-        <v>45508</v>
+      <c r="B470" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C470" s="30">
+        <v>45792</v>
       </c>
       <c r="D470" s="5">
         <v>7</v>
@@ -8954,11 +9013,11 @@
       <c r="A471" t="s">
         <v>465</v>
       </c>
-      <c r="B471" s="24" t="s">
+      <c r="B471" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C471" s="24">
-        <v>45501</v>
+      <c r="C471" s="31">
+        <v>45792</v>
       </c>
       <c r="D471" s="5"/>
     </row>
@@ -8966,11 +9025,11 @@
       <c r="A472" t="s">
         <v>466</v>
       </c>
-      <c r="B472" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C472" s="24">
-        <v>45547</v>
+      <c r="B472" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C472" s="30">
+        <v>45792</v>
       </c>
       <c r="D472" s="5">
         <v>9</v>
@@ -8980,11 +9039,11 @@
       <c r="A473" t="s">
         <v>467</v>
       </c>
-      <c r="B473" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C473" s="24">
-        <v>45326</v>
+      <c r="B473" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C473" s="31">
+        <v>45792</v>
       </c>
       <c r="D473" s="5"/>
     </row>
@@ -8992,11 +9051,11 @@
       <c r="A474" t="s">
         <v>468</v>
       </c>
-      <c r="B474" s="24" t="s">
+      <c r="B474" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C474" s="24">
-        <v>45346</v>
+      <c r="C474" s="30">
+        <v>45792</v>
       </c>
       <c r="D474" s="5">
         <v>1</v>
@@ -9006,11 +9065,11 @@
       <c r="A475" t="s">
         <v>469</v>
       </c>
-      <c r="B475" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C475" s="24">
-        <v>45501</v>
+      <c r="B475" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C475" s="31">
+        <v>45792</v>
       </c>
       <c r="D475" s="5">
         <v>14</v>
@@ -9020,11 +9079,11 @@
       <c r="A476" t="s">
         <v>470</v>
       </c>
-      <c r="B476" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C476" s="24">
-        <v>45316</v>
+      <c r="B476" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C476" s="30">
+        <v>45792</v>
       </c>
       <c r="D476" s="5">
         <v>17</v>
@@ -9034,11 +9093,11 @@
       <c r="A477" t="s">
         <v>471</v>
       </c>
-      <c r="B477" s="24" t="s">
+      <c r="B477" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C477" s="24">
-        <v>45580</v>
+      <c r="C477" s="31">
+        <v>45792</v>
       </c>
       <c r="D477" s="5">
         <v>22</v>
@@ -9048,11 +9107,11 @@
       <c r="A478" t="s">
         <v>472</v>
       </c>
-      <c r="B478" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C478" s="24">
-        <v>45445</v>
+      <c r="B478" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C478" s="30">
+        <v>45796</v>
       </c>
       <c r="D478" s="5"/>
     </row>
@@ -9060,11 +9119,11 @@
       <c r="A479" t="s">
         <v>473</v>
       </c>
-      <c r="B479" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C479" s="24">
-        <v>45599</v>
+      <c r="B479" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C479" s="31">
+        <v>45796</v>
       </c>
       <c r="D479" s="5">
         <v>21</v>
@@ -9074,11 +9133,11 @@
       <c r="A480" t="s">
         <v>474</v>
       </c>
-      <c r="B480" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C480" s="24">
-        <v>45625</v>
+      <c r="B480" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C480" s="30">
+        <v>45796</v>
       </c>
       <c r="D480" s="5">
         <v>10</v>
@@ -9088,11 +9147,11 @@
       <c r="A481" t="s">
         <v>475</v>
       </c>
-      <c r="B481" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C481" s="24">
-        <v>45435</v>
+      <c r="B481" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C481" s="31">
+        <v>45796</v>
       </c>
       <c r="D481" s="5">
         <v>3</v>
@@ -9102,11 +9161,11 @@
       <c r="A482" t="s">
         <v>476</v>
       </c>
-      <c r="B482" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C482" s="24">
-        <v>45449</v>
+      <c r="B482" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C482" s="30">
+        <v>45798</v>
       </c>
       <c r="D482" s="5">
         <v>24</v>
@@ -9116,11 +9175,11 @@
       <c r="A483" t="s">
         <v>477</v>
       </c>
-      <c r="B483" s="24" t="s">
+      <c r="B483" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C483" s="24">
-        <v>45626</v>
+      <c r="C483" s="31">
+        <v>45798</v>
       </c>
       <c r="D483" s="5"/>
     </row>
@@ -9128,11 +9187,11 @@
       <c r="A484" t="s">
         <v>478</v>
       </c>
-      <c r="B484" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C484" s="24">
-        <v>45650</v>
+      <c r="B484" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C484" s="30">
+        <v>45799</v>
       </c>
       <c r="D484" s="5">
         <v>2</v>
@@ -9142,11 +9201,11 @@
       <c r="A485" t="s">
         <v>479</v>
       </c>
-      <c r="B485" s="24" t="s">
+      <c r="B485" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C485" s="24">
-        <v>45310</v>
+      <c r="C485" s="31">
+        <v>45800</v>
       </c>
       <c r="D485" s="5">
         <v>15</v>
@@ -9156,11 +9215,11 @@
       <c r="A486" t="s">
         <v>480</v>
       </c>
-      <c r="B486" s="24" t="s">
+      <c r="B486" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C486" s="24">
-        <v>45409</v>
+      <c r="C486" s="30">
+        <v>45800</v>
       </c>
       <c r="D486" s="5">
         <v>2</v>
@@ -9170,11 +9229,11 @@
       <c r="A487" t="s">
         <v>481</v>
       </c>
-      <c r="B487" s="24" t="s">
+      <c r="B487" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C487" s="24">
-        <v>45362</v>
+      <c r="C487" s="31">
+        <v>45805</v>
       </c>
       <c r="D487" s="5">
         <v>25</v>
@@ -9184,11 +9243,11 @@
       <c r="A488" t="s">
         <v>482</v>
       </c>
-      <c r="B488" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C488" s="24">
-        <v>45334</v>
+      <c r="B488" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C488" s="30">
+        <v>45806</v>
       </c>
       <c r="D488" s="5">
         <v>9</v>
@@ -9198,11 +9257,11 @@
       <c r="A489" t="s">
         <v>483</v>
       </c>
-      <c r="B489" s="24" t="s">
+      <c r="B489" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C489" s="24">
-        <v>45406</v>
+      <c r="C489" s="31">
+        <v>45806</v>
       </c>
       <c r="D489" s="5">
         <v>20</v>
@@ -9212,11 +9271,11 @@
       <c r="A490" t="s">
         <v>484</v>
       </c>
-      <c r="B490" s="24" t="s">
+      <c r="B490" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C490" s="24">
-        <v>45584</v>
+      <c r="C490" s="30">
+        <v>45807</v>
       </c>
       <c r="D490" s="5">
         <v>10</v>
@@ -9226,11 +9285,11 @@
       <c r="A491" t="s">
         <v>485</v>
       </c>
-      <c r="B491" s="24" t="s">
+      <c r="B491" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C491" s="24">
-        <v>45352</v>
+      <c r="C491" s="31">
+        <v>45807</v>
       </c>
       <c r="D491" s="5">
         <v>18</v>
@@ -9240,11 +9299,11 @@
       <c r="A492" t="s">
         <v>486</v>
       </c>
-      <c r="B492" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C492" s="24">
-        <v>45614</v>
+      <c r="B492" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C492" s="30">
+        <v>45810</v>
       </c>
       <c r="D492" s="5">
         <v>28</v>
@@ -9254,11 +9313,11 @@
       <c r="A493" t="s">
         <v>487</v>
       </c>
-      <c r="B493" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C493" s="24">
-        <v>45372</v>
+      <c r="B493" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C493" s="31">
+        <v>45811</v>
       </c>
       <c r="D493" s="5"/>
     </row>
@@ -9266,11 +9325,11 @@
       <c r="A494" t="s">
         <v>488</v>
       </c>
-      <c r="B494" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C494" s="24">
-        <v>45339</v>
+      <c r="B494" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C494" s="30">
+        <v>45811</v>
       </c>
       <c r="D494" s="5">
         <v>12</v>
@@ -9280,11 +9339,11 @@
       <c r="A495" t="s">
         <v>489</v>
       </c>
-      <c r="B495" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C495" s="24">
-        <v>45343</v>
+      <c r="B495" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C495" s="31">
+        <v>45811</v>
       </c>
       <c r="D495" s="5">
         <v>10</v>
@@ -9294,11 +9353,11 @@
       <c r="A496" t="s">
         <v>490</v>
       </c>
-      <c r="B496" s="24" t="s">
+      <c r="B496" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C496" s="24">
-        <v>45307</v>
+      <c r="C496" s="30">
+        <v>45813</v>
       </c>
       <c r="D496" s="5"/>
     </row>
@@ -9306,11 +9365,11 @@
       <c r="A497" t="s">
         <v>491</v>
       </c>
-      <c r="B497" s="24" t="s">
+      <c r="B497" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C497" s="24">
-        <v>45478</v>
+      <c r="C497" s="31">
+        <v>45813</v>
       </c>
       <c r="D497" s="5">
         <v>19</v>
@@ -9320,11 +9379,11 @@
       <c r="A498" t="s">
         <v>492</v>
       </c>
-      <c r="B498" s="24" t="s">
+      <c r="B498" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C498" s="24">
-        <v>45500</v>
+      <c r="C498" s="30">
+        <v>45813</v>
       </c>
       <c r="D498" s="5"/>
     </row>
@@ -9332,11 +9391,11 @@
       <c r="A499" t="s">
         <v>493</v>
       </c>
-      <c r="B499" s="24" t="s">
+      <c r="B499" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C499" s="24">
-        <v>45437</v>
+      <c r="C499" s="31">
+        <v>45813</v>
       </c>
       <c r="D499" s="5">
         <v>6</v>
@@ -9346,11 +9405,11 @@
       <c r="A500" t="s">
         <v>494</v>
       </c>
-      <c r="B500" s="24" t="s">
+      <c r="B500" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C500" s="24">
-        <v>45324</v>
+      <c r="C500" s="30">
+        <v>45813</v>
       </c>
       <c r="D500" s="5"/>
     </row>
@@ -9358,11 +9417,11 @@
       <c r="A501" t="s">
         <v>495</v>
       </c>
-      <c r="B501" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C501" s="24">
-        <v>45560</v>
+      <c r="B501" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C501" s="31">
+        <v>45813</v>
       </c>
       <c r="D501" s="5">
         <v>26</v>
@@ -9372,11 +9431,11 @@
       <c r="A502" t="s">
         <v>496</v>
       </c>
-      <c r="B502" s="24" t="s">
+      <c r="B502" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C502" s="24">
-        <v>45498</v>
+      <c r="C502" s="30">
+        <v>45813</v>
       </c>
       <c r="D502" s="5">
         <v>23</v>
@@ -9386,11 +9445,11 @@
       <c r="A503" t="s">
         <v>497</v>
       </c>
-      <c r="B503" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C503" s="24">
-        <v>45366</v>
+      <c r="B503" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C503" s="31">
+        <v>45813</v>
       </c>
       <c r="D503" s="5">
         <v>22</v>
@@ -9400,11 +9459,11 @@
       <c r="A504" t="s">
         <v>498</v>
       </c>
-      <c r="B504" s="24" t="s">
+      <c r="B504" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C504" s="24">
-        <v>45301</v>
+      <c r="C504" s="30">
+        <v>45813</v>
       </c>
       <c r="D504" s="5"/>
     </row>
@@ -9412,11 +9471,11 @@
       <c r="A505" t="s">
         <v>499</v>
       </c>
-      <c r="B505" s="24" t="s">
+      <c r="B505" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C505" s="24">
-        <v>45602</v>
+      <c r="C505" s="31">
+        <v>45813</v>
       </c>
       <c r="D505" s="5"/>
     </row>
@@ -9424,11 +9483,11 @@
       <c r="A506" t="s">
         <v>500</v>
       </c>
-      <c r="B506" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C506" s="24">
-        <v>45626</v>
+      <c r="B506" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C506" s="30">
+        <v>45814</v>
       </c>
       <c r="D506" s="5">
         <v>16</v>
@@ -9438,11 +9497,11 @@
       <c r="A507" t="s">
         <v>501</v>
       </c>
-      <c r="B507" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C507" s="24">
-        <v>45402</v>
+      <c r="B507" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C507" s="31">
+        <v>45814</v>
       </c>
       <c r="D507" s="5"/>
     </row>
@@ -9450,11 +9509,11 @@
       <c r="A508" t="s">
         <v>502</v>
       </c>
-      <c r="B508" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C508" s="24">
-        <v>45511</v>
+      <c r="B508" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C508" s="30">
+        <v>45817</v>
       </c>
       <c r="D508" s="5">
         <v>26</v>
@@ -9464,11 +9523,11 @@
       <c r="A509" t="s">
         <v>503</v>
       </c>
-      <c r="B509" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C509" s="24">
-        <v>45455</v>
+      <c r="B509" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C509" s="31">
+        <v>45818</v>
       </c>
       <c r="D509" s="5">
         <v>20</v>
@@ -9478,11 +9537,11 @@
       <c r="A510" t="s">
         <v>504</v>
       </c>
-      <c r="B510" s="24" t="s">
+      <c r="B510" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C510" s="24">
-        <v>45356</v>
+      <c r="C510" s="30">
+        <v>45818</v>
       </c>
       <c r="D510" s="5">
         <v>24</v>
@@ -9492,11 +9551,11 @@
       <c r="A511" t="s">
         <v>505</v>
       </c>
-      <c r="B511" s="24" t="s">
+      <c r="B511" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C511" s="24">
-        <v>45317</v>
+      <c r="C511" s="31">
+        <v>45820</v>
       </c>
       <c r="D511" s="5"/>
     </row>
@@ -9504,11 +9563,11 @@
       <c r="A512" t="s">
         <v>506</v>
       </c>
-      <c r="B512" s="24" t="s">
+      <c r="B512" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C512" s="24">
-        <v>45656</v>
+      <c r="C512" s="30">
+        <v>45820</v>
       </c>
       <c r="D512" s="5">
         <v>19</v>
@@ -9518,11 +9577,11 @@
       <c r="A513" t="s">
         <v>507</v>
       </c>
-      <c r="B513" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C513" s="24">
-        <v>45419</v>
+      <c r="B513" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C513" s="31">
+        <v>45821</v>
       </c>
       <c r="D513" s="5">
         <v>21</v>
@@ -9532,11 +9591,11 @@
       <c r="A514" t="s">
         <v>508</v>
       </c>
-      <c r="B514" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C514" s="24">
-        <v>45641</v>
+      <c r="B514" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C514" s="30">
+        <v>45821</v>
       </c>
       <c r="D514" s="5">
         <v>17</v>
@@ -9546,11 +9605,11 @@
       <c r="A515" t="s">
         <v>509</v>
       </c>
-      <c r="B515" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C515" s="24">
-        <v>45584</v>
+      <c r="B515" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C515" s="31">
+        <v>45824</v>
       </c>
       <c r="D515" s="5">
         <v>6</v>
@@ -9560,11 +9619,11 @@
       <c r="A516" t="s">
         <v>510</v>
       </c>
-      <c r="B516" s="24" t="s">
+      <c r="B516" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C516" s="24">
-        <v>45516</v>
+      <c r="C516" s="30">
+        <v>45825</v>
       </c>
       <c r="D516" s="5">
         <v>15</v>
@@ -9574,11 +9633,11 @@
       <c r="A517" t="s">
         <v>511</v>
       </c>
-      <c r="B517" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C517" s="24">
-        <v>45441</v>
+      <c r="B517" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C517" s="31">
+        <v>45828</v>
       </c>
       <c r="D517" s="5"/>
     </row>
@@ -9586,11 +9645,11 @@
       <c r="A518" t="s">
         <v>512</v>
       </c>
-      <c r="B518" s="24" t="s">
+      <c r="B518" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C518" s="24">
-        <v>45521</v>
+      <c r="C518" s="30">
+        <v>45828</v>
       </c>
       <c r="D518" s="5">
         <v>29</v>
@@ -9600,11 +9659,11 @@
       <c r="A519" t="s">
         <v>513</v>
       </c>
-      <c r="B519" s="24" t="s">
+      <c r="B519" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C519" s="24">
-        <v>45552</v>
+      <c r="C519" s="31">
+        <v>45828</v>
       </c>
       <c r="D519" s="5">
         <v>2</v>
@@ -9614,11 +9673,11 @@
       <c r="A520" t="s">
         <v>514</v>
       </c>
-      <c r="B520" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C520" s="24">
-        <v>45639</v>
+      <c r="B520" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C520" s="30">
+        <v>45832</v>
       </c>
       <c r="D520" s="5"/>
     </row>
@@ -9626,11 +9685,11 @@
       <c r="A521" t="s">
         <v>515</v>
       </c>
-      <c r="B521" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C521" s="24">
-        <v>45441</v>
+      <c r="B521" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C521" s="31">
+        <v>45833</v>
       </c>
       <c r="D521" s="5">
         <v>14</v>
@@ -9640,11 +9699,11 @@
       <c r="A522" t="s">
         <v>516</v>
       </c>
-      <c r="B522" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C522" s="24">
-        <v>45459</v>
+      <c r="B522" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C522" s="30">
+        <v>45819</v>
       </c>
       <c r="D522" s="5">
         <v>7</v>
@@ -9654,11 +9713,11 @@
       <c r="A523" t="s">
         <v>517</v>
       </c>
-      <c r="B523" s="24" t="s">
+      <c r="B523" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="C523" s="24">
-        <v>45419</v>
+      <c r="C523" s="31">
+        <v>45835</v>
       </c>
       <c r="D523" s="5">
         <v>14</v>
@@ -9668,11 +9727,11 @@
       <c r="A524" t="s">
         <v>518</v>
       </c>
-      <c r="B524" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C524" s="24">
-        <v>45598</v>
+      <c r="B524" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C524" s="30">
+        <v>45835</v>
       </c>
       <c r="D524" s="5">
         <v>4</v>
@@ -9682,11 +9741,11 @@
       <c r="A525" t="s">
         <v>519</v>
       </c>
-      <c r="B525" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C525" s="24">
-        <v>45425</v>
+      <c r="B525" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C525" s="31">
+        <v>45838</v>
       </c>
       <c r="D525" s="5"/>
     </row>
@@ -9694,11 +9753,11 @@
       <c r="A526" t="s">
         <v>520</v>
       </c>
-      <c r="B526" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C526" s="24">
-        <v>45575</v>
+      <c r="B526" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C526" s="30">
+        <v>45838</v>
       </c>
       <c r="D526" s="5">
         <v>20</v>
@@ -9708,11 +9767,11 @@
       <c r="A527" t="s">
         <v>521</v>
       </c>
-      <c r="B527" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C527" s="24">
-        <v>45397</v>
+      <c r="B527" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C527" s="31">
+        <v>45838</v>
       </c>
       <c r="D527" s="5"/>
     </row>
@@ -9720,11 +9779,11 @@
       <c r="A528" t="s">
         <v>522</v>
       </c>
-      <c r="B528" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C528" s="24">
-        <v>45490</v>
+      <c r="B528" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C528" s="30">
+        <v>45839</v>
       </c>
       <c r="D528" s="5">
         <v>5</v>
@@ -9734,11 +9793,11 @@
       <c r="A529" t="s">
         <v>523</v>
       </c>
-      <c r="B529" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="C529" s="24">
-        <v>45655</v>
+      <c r="B529" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="C529" s="31">
+        <v>45839</v>
       </c>
       <c r="D529" s="5">
         <v>4</v>
@@ -9748,11 +9807,11 @@
       <c r="A530" t="s">
         <v>524</v>
       </c>
-      <c r="B530" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C530" s="24">
-        <v>45307</v>
+      <c r="B530" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C530" s="30">
+        <v>45839</v>
       </c>
       <c r="D530" s="5">
         <v>14</v>
@@ -9762,11 +9821,11 @@
       <c r="A531" t="s">
         <v>525</v>
       </c>
-      <c r="B531" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C531" s="24">
-        <v>45578</v>
+      <c r="B531" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C531" s="31">
+        <v>45845</v>
       </c>
       <c r="D531" s="5"/>
     </row>
@@ -9774,11 +9833,11 @@
       <c r="A532" t="s">
         <v>526</v>
       </c>
-      <c r="B532" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C532" s="24">
-        <v>45623</v>
+      <c r="B532" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C532" s="30">
+        <v>45845</v>
       </c>
       <c r="D532" s="5"/>
     </row>
@@ -9786,11 +9845,11 @@
       <c r="A533" t="s">
         <v>527</v>
       </c>
-      <c r="B533" s="24" t="s">
+      <c r="B533" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C533" s="24">
-        <v>45333</v>
+      <c r="C533" s="31">
+        <v>45845</v>
       </c>
       <c r="D533" s="5"/>
     </row>
@@ -9798,11 +9857,11 @@
       <c r="A534" t="s">
         <v>528</v>
       </c>
-      <c r="B534" s="24" t="s">
+      <c r="B534" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="C534" s="24">
-        <v>45318</v>
+      <c r="C534" s="30">
+        <v>45846</v>
       </c>
       <c r="D534" s="5"/>
     </row>
@@ -9810,11 +9869,11 @@
       <c r="A535" t="s">
         <v>529</v>
       </c>
-      <c r="B535" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="C535" s="24">
-        <v>45595</v>
+      <c r="B535" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C535" s="31">
+        <v>45846</v>
       </c>
       <c r="D535" s="5">
         <v>13</v>
@@ -9824,11 +9883,11 @@
       <c r="A536" t="s">
         <v>530</v>
       </c>
-      <c r="B536" s="24" t="s">
+      <c r="B536" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="C536" s="24">
-        <v>45299</v>
+      <c r="C536" s="30">
+        <v>45848</v>
       </c>
       <c r="D536" s="5">
         <v>27</v>
@@ -9838,11 +9897,11 @@
       <c r="A537" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="B537" s="29" t="s">
+      <c r="B537" s="44" t="s">
         <v>673</v>
       </c>
-      <c r="C537" s="24">
-        <v>45481</v>
+      <c r="C537" s="31">
+        <v>45849</v>
       </c>
       <c r="D537" s="5">
         <v>1</v>
@@ -9852,11 +9911,49 @@
       <c r="A538" t="s">
         <v>707</v>
       </c>
-      <c r="B538" s="29" t="s">
+      <c r="B538" s="44" t="s">
         <v>673</v>
       </c>
-      <c r="C538" s="29"/>
+      <c r="C538" s="30">
+        <v>45849</v>
+      </c>
       <c r="D538" s="2"/>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A539" s="28" t="s">
+        <v>708</v>
+      </c>
+      <c r="B539" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="C539" s="31">
+        <v>45849</v>
+      </c>
+      <c r="D539" s="5"/>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A540" s="38" t="s">
+        <v>709</v>
+      </c>
+      <c r="B540" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="C540" s="30">
+        <v>45852</v>
+      </c>
+      <c r="D540" s="5"/>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A541" s="28" t="s">
+        <v>710</v>
+      </c>
+      <c r="B541" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="C541" s="31">
+        <v>45852</v>
+      </c>
+      <c r="D541" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/compliance_marketing_master.xlsx
+++ b/compliance_marketing_master.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamza/Desktop/Compliance Dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamza/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF351CAE-E4F7-F84A-A843-CF7BE0EBDF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB0A77D-E977-7943-910D-2D6E4D8E1637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="760" windowWidth="27640" windowHeight="16840" xr2:uid="{E350BAA7-180B-454A-8219-FBA5C6910CE9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="931">
   <si>
     <t>Project Name</t>
   </si>
@@ -2495,9 +2495,6 @@
   </si>
   <si>
     <t>15 total (between 4 different updates)</t>
-  </si>
-  <si>
-    <t>16 total (4 pages each)</t>
   </si>
   <si>
     <t>20min 7sec</t>
@@ -3556,8 +3553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABCC7FD-F432-2449-9558-FEC0E4D984BB}">
   <dimension ref="A1:E562"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4108,8 +4105,8 @@
       <c r="D32" s="56">
         <v>45617</v>
       </c>
-      <c r="E32" s="19" t="s">
-        <v>819</v>
+      <c r="E32" s="19">
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -8340,7 +8337,7 @@
         <v>45828</v>
       </c>
       <c r="E285" s="19" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -14815,7 +14812,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B130" s="17" t="s">
         <v>655</v>
@@ -14830,7 +14827,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="16" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B131" s="16" t="s">
         <v>668</v>
@@ -14845,7 +14842,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B132" s="17" t="s">
         <v>655</v>
@@ -14860,7 +14857,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="16" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B133" s="16" t="s">
         <v>655</v>
@@ -14875,7 +14872,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B134" s="17" t="s">
         <v>545</v>
@@ -14890,7 +14887,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="16" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B135" s="16" t="s">
         <v>668</v>
@@ -14905,7 +14902,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="17" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B136" s="17" t="s">
         <v>670</v>
@@ -14920,10 +14917,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="16" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C137" s="16">
         <v>9</v>
@@ -14935,7 +14932,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="17" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B138" s="17" t="s">
         <v>545</v>
@@ -14950,7 +14947,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="16" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B139" s="16" t="s">
         <v>545</v>
@@ -14965,7 +14962,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="17" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B140" s="17" t="s">
         <v>674</v>
@@ -14980,13 +14977,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="16" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B141" s="16" t="s">
+        <v>833</v>
+      </c>
+      <c r="C141" s="16" t="s">
         <v>834</v>
-      </c>
-      <c r="C141" s="16" t="s">
-        <v>835</v>
       </c>
       <c r="D141" s="34">
         <v>45863</v>
@@ -15044,13 +15041,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F1" s="44" t="s">
         <v>2</v>
@@ -15058,16 +15055,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="45" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E2" s="45"/>
       <c r="F2" s="51">
@@ -15076,16 +15073,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="46" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E3" s="46"/>
       <c r="F3" s="52">
@@ -15094,16 +15091,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="45" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B4" s="45" t="s">
         <v>680</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E4" s="45"/>
       <c r="F4" s="51">
@@ -15112,16 +15109,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="46" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E5" s="46"/>
       <c r="F5" s="52">
@@ -15130,16 +15127,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="45" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E6" s="45"/>
       <c r="F6" s="51">
@@ -15148,16 +15145,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="46" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B7" s="46" t="s">
         <v>657</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E7" s="46"/>
       <c r="F7" s="52">
@@ -15166,16 +15163,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="45" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B8" s="45" t="s">
         <v>657</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E8" s="45"/>
       <c r="F8" s="51">
@@ -15184,16 +15181,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="46" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E9" s="46"/>
       <c r="F9" s="52">
@@ -15202,16 +15199,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="45" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B10" s="45" t="s">
         <v>657</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E10" s="45">
         <v>2</v>
@@ -15222,16 +15219,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="46" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E11" s="46">
         <v>5</v>
@@ -15242,16 +15239,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="45" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E12" s="45">
         <v>1</v>
@@ -15262,19 +15259,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="46" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F13" s="52">
         <v>45576</v>
@@ -15282,16 +15279,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="45" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E14" s="45">
         <v>1</v>
@@ -15302,16 +15299,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="46" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E15" s="46">
         <v>8</v>
@@ -15322,16 +15319,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="45" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E16" s="45">
         <v>6</v>
@@ -15342,19 +15339,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="46" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F17" s="53">
         <v>45594</v>
@@ -15362,19 +15359,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="45" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C18" s="45" t="s">
+        <v>921</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>925</v>
+      </c>
+      <c r="E18" s="45" t="s">
         <v>922</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>926</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>923</v>
       </c>
       <c r="F18" s="51">
         <v>45602</v>
@@ -15382,19 +15379,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="46" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B19" s="46" t="s">
         <v>657</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F19" s="52">
         <v>45616</v>
@@ -15402,16 +15399,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E20" s="45">
         <v>48</v>
@@ -15422,19 +15419,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="46" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F21" s="52">
         <v>45616</v>
@@ -15442,36 +15439,36 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="47" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="46" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B23" s="46" t="s">
         <v>657</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E23" s="46"/>
       <c r="F23" s="52">
@@ -15480,19 +15477,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="45" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C24" s="45" t="s">
+        <v>921</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>925</v>
+      </c>
+      <c r="E24" s="45" t="s">
         <v>922</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>926</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>923</v>
       </c>
       <c r="F24" s="51">
         <v>45617</v>
@@ -15500,36 +15497,36 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="46" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E25" s="46">
         <v>111</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="45" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B26" s="45" t="s">
         <v>680</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E26" s="45">
         <v>16</v>
@@ -15548,16 +15545,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="45" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B28" s="45" t="s">
         <v>657</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E28" s="45">
         <v>2</v>
@@ -15568,16 +15565,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="46" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E29" s="46">
         <v>9</v>
@@ -15588,16 +15585,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="45" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E30" s="45">
         <v>14</v>
@@ -15608,16 +15605,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="46" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E31" s="46">
         <v>8</v>
@@ -15628,16 +15625,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="45" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D32" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E32" s="45">
         <v>0</v>
@@ -15648,16 +15645,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="46" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D33" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E33" s="46">
         <v>7</v>
@@ -15668,16 +15665,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="45" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D34" s="45" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E34" s="45">
         <v>12</v>
@@ -15688,16 +15685,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="46" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E35" s="46">
         <v>59</v>
@@ -15708,16 +15705,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="45" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D36" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E36" s="45">
         <v>115</v>
@@ -15728,16 +15725,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="46" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C37" s="46" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E37" s="46">
         <v>79</v>
@@ -15748,16 +15745,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="45" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E38" s="45">
         <v>15</v>
@@ -15768,16 +15765,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="46" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B39" s="46" t="s">
         <v>680</v>
       </c>
       <c r="C39" s="46" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D39" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E39" s="46">
         <v>9</v>
@@ -15788,16 +15785,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="45" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B40" s="45" t="s">
         <v>680</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E40" s="45">
         <v>9</v>
@@ -15808,16 +15805,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="46" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B41" s="46" t="s">
         <v>657</v>
       </c>
       <c r="C41" s="46" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D41" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E41" s="46">
         <v>5</v>
@@ -15828,16 +15825,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="48" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B42" s="48" t="s">
         <v>657</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E42" s="48"/>
       <c r="F42" s="54">
@@ -15846,16 +15843,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="46" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D43" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E43" s="46">
         <v>34</v>
@@ -15866,16 +15863,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="45" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B44" s="45" t="s">
         <v>657</v>
       </c>
       <c r="C44" s="45" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D44" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E44" s="45">
         <v>19</v>
@@ -15886,16 +15883,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="46" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B45" s="46" t="s">
         <v>657</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D45" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E45" s="46">
         <v>28</v>
@@ -15906,16 +15903,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="45" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B46" s="45" t="s">
         <v>657</v>
       </c>
       <c r="C46" s="45" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D46" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E46" s="45">
         <v>15</v>
@@ -15926,16 +15923,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="46" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B47" s="46" t="s">
         <v>657</v>
       </c>
       <c r="C47" s="46" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D47" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E47" s="46">
         <v>5</v>
@@ -15946,16 +15943,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="45" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B48" s="45" t="s">
         <v>657</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E48" s="45">
         <v>8</v>
@@ -15966,16 +15963,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="46" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B49" s="46" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C49" s="46" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D49" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E49" s="46">
         <v>2</v>
@@ -15986,16 +15983,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="45" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B50" s="45" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D50" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E50" s="45">
         <v>9</v>
@@ -16006,16 +16003,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="46" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B51" s="46" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C51" s="46" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D51" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E51" s="46">
         <v>24</v>
@@ -16026,16 +16023,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="45" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B52" s="45" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C52" s="45" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D52" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E52" s="45">
         <v>5</v>
@@ -16046,16 +16043,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="46" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B53" s="46" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C53" s="46" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D53" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E53" s="46">
         <v>6</v>
@@ -16066,16 +16063,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="45" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B54" s="45" t="s">
         <v>680</v>
       </c>
       <c r="C54" s="45" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D54" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E54" s="45">
         <v>10</v>
@@ -16086,16 +16083,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="46" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B55" s="46" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C55" s="46" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D55" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E55" s="46">
         <v>7</v>
@@ -16106,16 +16103,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="45" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C56" s="45" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D56" s="45" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E56" s="45">
         <v>2</v>
@@ -16126,16 +16123,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="46" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B57" s="46" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C57" s="46" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D57" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E57" s="46">
         <v>9</v>
@@ -16146,16 +16143,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="45" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C58" s="45" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D58" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E58" s="45">
         <v>177</v>
@@ -16166,16 +16163,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="46" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B59" s="46" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C59" s="46" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D59" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E59" s="46">
         <v>40</v>
@@ -16186,16 +16183,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="45" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C60" s="45" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D60" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E60" s="45">
         <v>16</v>
@@ -16206,16 +16203,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="46" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B61" s="46" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C61" s="46" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D61" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E61" s="46">
         <v>13</v>
@@ -16226,16 +16223,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="45" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C62" s="45" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D62" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E62" s="45">
         <v>4</v>
@@ -16246,16 +16243,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="46" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B63" s="46" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C63" s="46" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D63" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E63" s="46">
         <v>15</v>
@@ -16266,16 +16263,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="45" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C64" s="45" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D64" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E64" s="45">
         <v>28</v>
@@ -16286,16 +16283,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="46" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B65" s="46" t="s">
         <v>657</v>
       </c>
       <c r="C65" s="46" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D65" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E65" s="46">
         <v>11</v>
@@ -16306,16 +16303,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="45" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B66" s="45" t="s">
         <v>657</v>
       </c>
       <c r="C66" s="45" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D66" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E66" s="45">
         <v>4</v>
@@ -16326,16 +16323,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="46" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B67" s="46" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C67" s="46" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D67" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E67" s="46">
         <v>3</v>
@@ -16346,16 +16343,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="45" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B68" s="45" t="s">
         <v>657</v>
       </c>
       <c r="C68" s="45" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D68" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E68" s="45">
         <v>28</v>
@@ -16366,16 +16363,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="46" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B69" s="46" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C69" s="46" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D69" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E69" s="46">
         <v>59</v>
@@ -16386,16 +16383,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="45" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C70" s="45" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D70" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E70" s="45"/>
       <c r="F70" s="51">
@@ -16404,16 +16401,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="46" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B71" s="46" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C71" s="46" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D71" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E71" s="46">
         <v>6</v>
@@ -16424,16 +16421,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="45" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C72" s="45" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D72" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E72" s="45">
         <v>15</v>
@@ -16444,16 +16441,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="46" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B73" s="46" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C73" s="46" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D73" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E73" s="46">
         <v>3</v>
@@ -16464,16 +16461,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="45" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C74" s="45" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D74" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E74" s="45">
         <v>23</v>
@@ -16484,16 +16481,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="46" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B75" s="46" t="s">
         <v>657</v>
       </c>
       <c r="C75" s="46" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D75" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E75" s="46">
         <v>4</v>
@@ -16504,16 +16501,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="45" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B76" s="45" t="s">
         <v>657</v>
       </c>
       <c r="C76" s="45" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D76" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E76" s="45">
         <v>3</v>
@@ -16524,16 +16521,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="46" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B77" s="46" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C77" s="46" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D77" s="46" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E77" s="46">
         <v>119</v>
@@ -16544,16 +16541,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="45" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B78" s="45" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C78" s="45" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D78" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E78" s="45"/>
       <c r="F78" s="51">
@@ -16562,16 +16559,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="46" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B79" s="46" t="s">
         <v>680</v>
       </c>
       <c r="C79" s="46" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D79" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E79" s="46"/>
       <c r="F79" s="52">
@@ -16580,16 +16577,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="45" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B80" s="45" t="s">
         <v>657</v>
       </c>
       <c r="C80" s="45" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D80" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E80" s="45"/>
       <c r="F80" s="51">
@@ -16598,16 +16595,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="46" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B81" s="46" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C81" s="46" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D81" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E81" s="46">
         <v>2</v>
@@ -16618,16 +16615,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="45" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B82" s="45" t="s">
         <v>670</v>
       </c>
       <c r="C82" s="45" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D82" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E82" s="45"/>
       <c r="F82" s="51">
@@ -16636,16 +16633,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="46" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B83" s="46" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C83" s="46" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D83" s="46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E83" s="46"/>
       <c r="F83" s="52">
@@ -16654,16 +16651,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="45" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B84" s="45" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C84" s="45" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D84" s="45" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E84" s="45"/>
       <c r="F84" s="51">
@@ -16688,7 +16685,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="49" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B87" s="49"/>
       <c r="C87" s="49"/>
